--- a/sriramModel-nelson-melancholic-patientID_17-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.065929522668002</v>
+        <v>2.030726225176259</v>
       </c>
       <c r="C2">
-        <v>2.047072587475957</v>
+        <v>2.0349897610258</v>
       </c>
       <c r="D2">
-        <v>2.046870009794392</v>
+        <v>2.067308753799265</v>
       </c>
       <c r="E2">
-        <v>2.02956088520041</v>
+        <v>2.045840159213623</v>
       </c>
       <c r="F2">
-        <v>2.02548120606254</v>
+        <v>2.013477749103942</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.129357393347012</v>
+        <v>2.060587481837112</v>
       </c>
       <c r="C3">
-        <v>2.092821620086154</v>
+        <v>2.068979510246052</v>
       </c>
       <c r="D3">
-        <v>2.092423357198913</v>
+        <v>2.132860412504144</v>
       </c>
       <c r="E3">
-        <v>2.058306418001411</v>
+        <v>2.090171007179763</v>
       </c>
       <c r="F3">
-        <v>2.050269973340393</v>
+        <v>2.026696930736481</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.190444315310341</v>
+        <v>2.089632463736553</v>
       </c>
       <c r="C4">
-        <v>2.137320818632299</v>
+        <v>2.10202777521781</v>
       </c>
       <c r="D4">
-        <v>2.13673438259929</v>
+        <v>2.19676640254675</v>
       </c>
       <c r="E4">
-        <v>2.08628183149075</v>
+        <v>2.133078217557003</v>
       </c>
       <c r="F4">
-        <v>2.074404754879374</v>
+        <v>2.039679487969853</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.24934406843079</v>
+        <v>2.117908706136638</v>
       </c>
       <c r="C5">
-        <v>2.180641754819102</v>
+        <v>2.134191469048907</v>
       </c>
       <c r="D5">
-        <v>2.17987564033904</v>
+        <v>2.259131989402424</v>
       </c>
       <c r="E5">
-        <v>2.113531169002763</v>
+        <v>2.174644573626358</v>
       </c>
       <c r="F5">
-        <v>2.097923118993179</v>
+        <v>2.052446886350361</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.306204100788806</v>
+        <v>2.145462651681252</v>
       </c>
       <c r="C6">
-        <v>2.222854247193171</v>
+        <v>2.165526064204151</v>
       </c>
       <c r="D6">
-        <v>2.221917998799863</v>
+        <v>2.32005780674779</v>
       </c>
       <c r="E6">
-        <v>2.140097424609412</v>
+        <v>2.214950134788495</v>
       </c>
       <c r="F6">
-        <v>2.120861940262734</v>
+        <v>2.065020237528568</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.361165890220956</v>
+        <v>2.172339719701788</v>
       </c>
       <c r="C7">
-        <v>2.264026403136119</v>
+        <v>2.196085737224616</v>
       </c>
       <c r="D7">
-        <v>2.262930753040106</v>
+        <v>2.379640289572948</v>
       </c>
       <c r="E7">
-        <v>2.166022611783574</v>
+        <v>2.254072421343115</v>
       </c>
       <c r="F7">
-        <v>2.14325742520948</v>
+        <v>2.07742034999017</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.414365258357434</v>
+        <v>2.198584360875329</v>
       </c>
       <c r="C8">
-        <v>2.304224734106944</v>
+        <v>2.225923418124628</v>
       </c>
       <c r="D8">
-        <v>2.302981707611347</v>
+        <v>2.43797223181673</v>
       </c>
       <c r="E8">
-        <v>2.19134782222273</v>
+        <v>2.292086556057247</v>
       </c>
       <c r="F8">
-        <v>2.165145154336549</v>
+        <v>2.089667738791676</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.465932727543011</v>
+        <v>2.224240117440171</v>
       </c>
       <c r="C9">
-        <v>2.343514257854486</v>
+        <v>2.25509087141585</v>
       </c>
       <c r="D9">
-        <v>2.34213726974315</v>
+        <v>2.495143290182902</v>
       </c>
       <c r="E9">
-        <v>2.216113287719949</v>
+        <v>2.329065401085133</v>
       </c>
       <c r="F9">
-        <v>2.186560133332386</v>
+        <v>2.101782662813928</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.515993871589829</v>
+        <v>2.249349681145267</v>
       </c>
       <c r="C10">
-        <v>2.381958584674035</v>
+        <v>2.283638780403623</v>
       </c>
       <c r="D10">
-        <v>2.380462537723788</v>
+        <v>2.551240376678941</v>
       </c>
       <c r="E10">
-        <v>2.240358438856598</v>
+        <v>2.365079685290744</v>
       </c>
       <c r="F10">
-        <v>2.207536833163067</v>
+        <v>2.113785159852579</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.564669576147255</v>
+        <v>2.273954946850294</v>
       </c>
       <c r="C11">
-        <v>2.419620007112931</v>
+        <v>2.311616828627108</v>
       </c>
       <c r="D11">
-        <v>2.418021384875348</v>
+        <v>2.606347989847297</v>
       </c>
       <c r="E11">
-        <v>2.264121961227548</v>
+        <v>2.40019813557304</v>
       </c>
       <c r="F11">
-        <v>2.228109232205624</v>
+        <v>2.125695086448819</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.612076325514173</v>
+        <v>2.298097071685335</v>
       </c>
       <c r="C12">
-        <v>2.456559589750952</v>
+        <v>2.339073777880055</v>
       </c>
       <c r="D12">
-        <v>2.454876541167695</v>
+        <v>2.660548461579678</v>
       </c>
       <c r="E12">
-        <v>2.287441855637216</v>
+        <v>2.434487602776149</v>
       </c>
       <c r="F12">
-        <v>2.248310860072089</v>
+        <v>2.137532155220903</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.658326483526142</v>
+        <v>2.321816534577736</v>
       </c>
       <c r="C13">
-        <v>2.492837259608541</v>
+        <v>2.366057541918506</v>
       </c>
       <c r="D13">
-        <v>2.491089686918594</v>
+        <v>2.713922157297361</v>
       </c>
       <c r="E13">
-        <v>2.310355497166474</v>
+        <v>2.468013165321448</v>
       </c>
       <c r="F13">
-        <v>2.268174845010002</v>
+        <v>2.149315970231547</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.703528545516712</v>
+        <v>2.345153191933006</v>
       </c>
       <c r="C14">
-        <v>2.52851189404279</v>
+        <v>2.392615267600204</v>
       </c>
       <c r="D14">
-        <v>2.52672153597606</v>
+        <v>2.766547647659165</v>
       </c>
       <c r="E14">
-        <v>2.332899688532017</v>
+        <v>2.500838232224146</v>
       </c>
       <c r="F14">
-        <v>2.287733960746575</v>
+        <v>2.161066063384681</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.747787369714537</v>
+        <v>2.36814633543432</v>
       </c>
       <c r="C15">
-        <v>2.563641408070267</v>
+        <v>2.418793415449394</v>
       </c>
       <c r="D15">
-        <v>2.561831917526899</v>
+        <v>2.818501848561631</v>
       </c>
       <c r="E15">
-        <v>2.355110716775387</v>
+        <v>2.533024648535938</v>
       </c>
       <c r="F15">
-        <v>2.307020674233737</v>
+        <v>2.172801932996247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.791204391608898</v>
+        <v>2.390834754768391</v>
       </c>
       <c r="C16">
-        <v>2.598282841776662</v>
+        <v>2.444637845361571</v>
       </c>
       <c r="D16">
-        <v>2.596479863638498</v>
+        <v>2.869860126103789</v>
       </c>
       <c r="E16">
-        <v>2.377024413883584</v>
+        <v>2.564632793733282</v>
       </c>
       <c r="F16">
-        <v>2.326067197446796</v>
+        <v>2.184543084351013</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.833877826562392</v>
+        <v>2.413256800203123</v>
       </c>
       <c r="C17">
-        <v>2.63249244925693</v>
+        <v>2.47019390033015</v>
       </c>
       <c r="D17">
-        <v>2.630723699585908</v>
+        <v>2.920696371406494</v>
       </c>
       <c r="E17">
-        <v>2.398676215863093</v>
+        <v>2.595721677435813</v>
       </c>
       <c r="F17">
-        <v>2.344905540610137</v>
+        <v>2.196309071938265</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.875902861106312</v>
+        <v>2.435450447264382</v>
       </c>
       <c r="C18">
-        <v>2.666325791386553</v>
+        <v>2.495506496700667</v>
       </c>
       <c r="D18">
-        <v>2.664621136486919</v>
+        <v>2.971083054401441</v>
       </c>
       <c r="E18">
-        <v>2.420101225960617</v>
+        <v>2.626349027990277</v>
       </c>
       <c r="F18">
-        <v>2.363567569947157</v>
+        <v>2.208119543424719</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.917371828848511</v>
+        <v>2.45745336748861</v>
       </c>
       <c r="C19">
-        <v>2.699837832577087</v>
+        <v>2.520620190748152</v>
       </c>
       <c r="D19">
-        <v>2.698229359124051</v>
+        <v>3.021091263920164</v>
       </c>
       <c r="E19">
-        <v>2.441334281409614</v>
+        <v>2.656571381454566</v>
       </c>
       <c r="F19">
-        <v>2.38208506762368</v>
+        <v>2.219994285728699</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.958374370330211</v>
+        <v>2.479303007137985</v>
       </c>
       <c r="C20">
-        <v>2.73308304092367</v>
+        <v>2.545579317949691</v>
       </c>
       <c r="D20">
-        <v>2.731605131804066</v>
+        <v>3.070790737143833</v>
       </c>
       <c r="E20">
-        <v>2.46241001626647</v>
+        <v>2.686444169358763</v>
       </c>
       <c r="F20">
-        <v>2.400489800858916</v>
+        <v>2.231953273953598</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.998997578954306</v>
+        <v>2.501036668331758</v>
       </c>
       <c r="C21">
-        <v>2.766115496301786</v>
+        <v>2.570428095812841</v>
       </c>
       <c r="D21">
-        <v>2.764804897088665</v>
+        <v>3.120249879058127</v>
       </c>
       <c r="E21">
-        <v>2.483362950929069</v>
+        <v>2.716021805711635</v>
       </c>
       <c r="F21">
-        <v>2.418813594024026</v>
+        <v>2.244016722692665</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.039326135031835</v>
+        <v>2.52269159572604</v>
       </c>
       <c r="C22">
-        <v>2.798989006174598</v>
+        <v>2.595210734599554</v>
       </c>
       <c r="D22">
-        <v>2.797884881632893</v>
+        <v>3.169535770593023</v>
       </c>
       <c r="E22">
-        <v>2.504227557702695</v>
+        <v>2.745357774108421</v>
       </c>
       <c r="F22">
-        <v>2.437088410249224</v>
+        <v>2.256205140206272</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.079442429112292</v>
+        <v>2.544305080700996</v>
       </c>
       <c r="C23">
-        <v>2.831757230794981</v>
+        <v>2.619971563214131</v>
       </c>
       <c r="D23">
-        <v>2.830901221770799</v>
+        <v>3.218714168044907</v>
       </c>
       <c r="E23">
-        <v>2.525038361380759</v>
+        <v>2.774504716417652</v>
       </c>
       <c r="F23">
-        <v>2.455346437999883</v>
+        <v>2.268539388845322</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.119426673114821</v>
+        <v>2.565914551979942</v>
       </c>
       <c r="C24">
-        <v>2.8644738216718</v>
+        <v>2.644755164693697</v>
       </c>
       <c r="D24">
-        <v>2.863910076434026</v>
+        <v>3.267849496136529</v>
       </c>
       <c r="E24">
-        <v>2.545830043804777</v>
+        <v>2.803514522585197</v>
       </c>
       <c r="F24">
-        <v>2.473620193708034</v>
+        <v>2.281040747652587</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.159357000227958</v>
+        <v>2.587557713290695</v>
       </c>
       <c r="C25">
-        <v>2.89719257048692</v>
+        <v>2.669606528387697</v>
       </c>
       <c r="D25">
-        <v>2.896967759790565</v>
+        <v>3.317004835204114</v>
       </c>
       <c r="E25">
-        <v>2.566637529046123</v>
+        <v>2.832438423943564</v>
       </c>
       <c r="F25">
-        <v>2.491942634257824</v>
+        <v>2.2937309804878</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.199309553605843</v>
+        <v>2.609272674688578</v>
       </c>
       <c r="C26">
-        <v>2.929967580909738</v>
+        <v>2.6945712287819</v>
       </c>
       <c r="D26">
-        <v>2.93013089320064</v>
+        <v>3.366241902188542</v>
       </c>
       <c r="E26">
-        <v>2.58749614078594</v>
+        <v>2.861327089277133</v>
       </c>
       <c r="F26">
-        <v>2.510347284541507</v>
+        <v>2.306632409651387</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.239358564716404</v>
+        <v>2.631098114245841</v>
       </c>
       <c r="C27">
-        <v>2.962853459520101</v>
+        <v>2.719695617601589</v>
       </c>
       <c r="D27">
-        <v>2.96345654437092</v>
+        <v>3.415621025193988</v>
       </c>
       <c r="E27">
-        <v>2.60844172638834</v>
+        <v>2.890230728200953</v>
       </c>
       <c r="F27">
-        <v>2.528868380314957</v>
+        <v>2.31976799566177</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.279576421613965</v>
+        <v>2.653073451455845</v>
       </c>
       <c r="C28">
-        <v>2.995905530188066</v>
+        <v>2.74502703912192</v>
       </c>
       <c r="D28">
-        <v>2.997002401368984</v>
+        <v>3.465201111585617</v>
       </c>
       <c r="E28">
-        <v>2.629510805536612</v>
+        <v>2.919199201060645</v>
       </c>
       <c r="F28">
-        <v>2.547541032218005</v>
+        <v>2.333161423889085</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.320033727121097</v>
+        <v>2.675239044996977</v>
       </c>
       <c r="C29">
-        <v>3.029180081487256</v>
+        <v>2.77061407614611</v>
       </c>
       <c r="D29">
-        <v>3.030826967717171</v>
+        <v>3.515039609496549</v>
       </c>
       <c r="E29">
-        <v>2.650740803406143</v>
+        <v>2.948282136862747</v>
       </c>
       <c r="F29">
-        <v>2.566401421973157</v>
+        <v>2.346837198796288</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.360799346891581</v>
+        <v>2.697636426902619</v>
       </c>
       <c r="C30">
-        <v>3.062734637889843</v>
+        <v>2.796506817501509</v>
       </c>
       <c r="D30">
-        <v>3.064989736685007</v>
+        <v>3.565192462353237</v>
       </c>
       <c r="E30">
-        <v>2.672170202953021</v>
+        <v>2.977529062846039</v>
       </c>
       <c r="F30">
-        <v>2.585487019286683</v>
+        <v>2.360820736999349</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.401940447430755</v>
+        <v>2.72030857505864</v>
       </c>
       <c r="C31">
-        <v>3.096628288057449</v>
+        <v>2.822757182400365</v>
       </c>
       <c r="D31">
-        <v>3.099551431096274</v>
+        <v>3.615714055782438</v>
       </c>
       <c r="E31">
-        <v>2.693838841837818</v>
+        <v>3.006989541054057</v>
       </c>
       <c r="F31">
-        <v>2.604836843384556</v>
+        <v>2.375138493572639</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.44352252431837</v>
+        <v>2.743300215810446</v>
       </c>
       <c r="C32">
-        <v>3.130922055707241</v>
+        <v>2.849419277484008</v>
       </c>
       <c r="D32">
-        <v>3.134574254909399</v>
+        <v>3.666657156111086</v>
       </c>
       <c r="E32">
-        <v>2.715788235413313</v>
+        <v>3.036713328354203</v>
       </c>
       <c r="F32">
-        <v>2.62449174238808</v>
+        <v>2.389818098473731</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.485609420052234</v>
+        <v>2.766658198728607</v>
       </c>
       <c r="C33">
-        <v>3.16567932661796</v>
+        <v>2.876549809735343</v>
       </c>
       <c r="D33">
-        <v>3.17012212092823</v>
+        <v>3.718072839451109</v>
       </c>
       <c r="E33">
-        <v>2.738061803641039</v>
+        <v>3.066750547627363</v>
       </c>
       <c r="F33">
-        <v>2.644494765583986</v>
+        <v>2.404888462619921</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.528263331560472</v>
+        <v>2.790431915917776</v>
       </c>
       <c r="C34">
-        <v>3.200966352124536</v>
+        <v>2.904208562900833</v>
       </c>
       <c r="D34">
-        <v>3.206260983476474</v>
+        <v>3.770010411213369</v>
       </c>
       <c r="E34">
-        <v>2.760705443736031</v>
+        <v>3.097151880625298</v>
       </c>
       <c r="F34">
-        <v>2.664891567165978</v>
+        <v>2.420379901683654</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.571544806955236</v>
+        <v>2.814673795256336</v>
       </c>
       <c r="C35">
-        <v>3.236852806153183</v>
+        <v>2.932458933854107</v>
       </c>
       <c r="D35">
-        <v>3.243059166988771</v>
+        <v>3.822517313788873</v>
       </c>
       <c r="E35">
-        <v>2.78376783766409</v>
+        <v>3.127968784691165</v>
       </c>
       <c r="F35">
-        <v>2.68573090085963</v>
+        <v>2.436324340785473</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.615512731110576</v>
+        <v>2.839439882751569</v>
       </c>
       <c r="C36">
-        <v>3.273412477753365</v>
+        <v>2.961368560635503</v>
       </c>
       <c r="D36">
-        <v>3.280587667485917</v>
+        <v>3.875639022391071</v>
       </c>
       <c r="E36">
-        <v>2.807301231447581</v>
+        <v>3.15925372803842</v>
       </c>
       <c r="F36">
-        <v>2.707065170985761</v>
+        <v>2.452755480000668</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.660224299490481</v>
+        <v>2.864790506912281</v>
       </c>
       <c r="C37">
-        <v>3.31072405313335</v>
+        <v>2.991010050677063</v>
       </c>
       <c r="D37">
-        <v>3.318920610866281</v>
+        <v>3.929418927868815</v>
       </c>
       <c r="E37">
-        <v>2.831362062121749</v>
+        <v>3.191060471634239</v>
       </c>
       <c r="F37">
-        <v>2.728951139924712</v>
+        <v>2.469708949262901</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.70573497949855</v>
+        <v>2.890791070128244</v>
       </c>
       <c r="C38">
-        <v>3.348872025680846</v>
+        <v>3.021461805033408</v>
       </c>
       <c r="D38">
-        <v>3.358135673831537</v>
+        <v>3.983898205374017</v>
       </c>
       <c r="E38">
-        <v>2.856011776455999</v>
+        <v>3.223444371265726</v>
       </c>
       <c r="F38">
-        <v>2.75145075424888</v>
+        <v>2.487222511336537</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.75209845845182</v>
+        <v>2.917512979204596</v>
       </c>
       <c r="C39">
-        <v>3.387947771669364</v>
+        <v>3.052808968318409</v>
       </c>
       <c r="D39">
-        <v>3.398314460607994</v>
+        <v>4.039115668202555</v>
       </c>
       <c r="E39">
-        <v>2.881317857640593</v>
+        <v>3.256462722360135</v>
       </c>
       <c r="F39">
-        <v>2.774632131227211</v>
+        <v>2.50533627837137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.799366577088477</v>
+        <v>2.945034703134621</v>
       </c>
       <c r="C40">
-        <v>3.428050732188642</v>
+        <v>3.085144524145413</v>
       </c>
       <c r="D40">
-        <v>3.439543150738911</v>
+        <v>4.095107606326748</v>
       </c>
       <c r="E40">
-        <v>2.907355078316598</v>
+        <v>3.290175123882498</v>
       </c>
       <c r="F40">
-        <v>2.798570727830775</v>
+        <v>2.524092930660576</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.847589247288037</v>
+        <v>2.973442998188374</v>
       </c>
       <c r="C41">
-        <v>3.469289883865388</v>
+        <v>3.118570483977074</v>
       </c>
       <c r="D41">
-        <v>3.481912977998582</v>
+        <v>4.151907610509722</v>
       </c>
       <c r="E41">
-        <v>2.934207039262799</v>
+        <v>3.324643946827206</v>
       </c>
       <c r="F41">
-        <v>2.823350653008796</v>
+        <v>2.54353793601869</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.896814352404847</v>
+        <v>3.002834241354956</v>
       </c>
       <c r="C42">
-        <v>3.511785333305903</v>
+        <v>3.153199314438182</v>
       </c>
       <c r="D42">
-        <v>3.525520793140902</v>
+        <v>4.209546380139416</v>
       </c>
       <c r="E42">
-        <v>2.961967989199896</v>
+        <v>3.359934782642657</v>
       </c>
       <c r="F42">
-        <v>2.849066612849867</v>
+        <v>2.563719778587604</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.947087628292382</v>
+        <v>3.033316111412748</v>
       </c>
       <c r="C43">
-        <v>3.555670150144959</v>
+        <v>3.189155430555626</v>
       </c>
       <c r="D43">
-        <v>3.57046964753169</v>
+        <v>4.268051513365398</v>
       </c>
       <c r="E43">
-        <v>2.990745023842729</v>
+        <v>3.396116948171151</v>
       </c>
       <c r="F43">
-        <v>2.875825891546834</v>
+        <v>2.584690184195837</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.998452522799285</v>
+        <v>3.065009198596007</v>
       </c>
       <c r="C44">
-        <v>3.601092512129507</v>
+        <v>3.226576850081226</v>
       </c>
       <c r="D44">
-        <v>3.616869392335051</v>
+        <v>4.327447295412947</v>
       </c>
       <c r="E44">
-        <v>3.020661025750214</v>
+        <v>3.433264038240973</v>
       </c>
       <c r="F44">
-        <v>2.903750757543229</v>
+        <v>2.606504329370662</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.050950034385759</v>
+        <v>3.098048697377682</v>
       </c>
       <c r="C45">
-        <v>3.648217819651709</v>
+        <v>3.265616965402426</v>
       </c>
       <c r="D45">
-        <v>3.664837255968981</v>
+        <v>4.387754474683653</v>
       </c>
       <c r="E45">
-        <v>3.051857966440104</v>
+        <v>3.471454508047219</v>
       </c>
       <c r="F45">
-        <v>2.932981417046571</v>
+        <v>2.62922102127315</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.104618511868145</v>
+        <v>3.132586073053285</v>
       </c>
       <c r="C46">
-        <v>3.697230953115722</v>
+        <v>3.306446158428515</v>
       </c>
       <c r="D46">
-        <v>3.714498353990173</v>
+        <v>4.448990033176295</v>
       </c>
       <c r="E46">
-        <v>3.084500883743278</v>
+        <v>3.51077225470519</v>
       </c>
       <c r="F46">
-        <v>2.963679545305627</v>
+        <v>2.652902832021572</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.159493435347634</v>
+        <v>3.168790405329555</v>
       </c>
       <c r="C47">
-        <v>3.748338502687216</v>
+        <v>3.349253267870751</v>
       </c>
       <c r="D47">
-        <v>3.765986102933843</v>
+        <v>4.5111669618186</v>
       </c>
       <c r="E47">
-        <v>3.118782758107496</v>
+        <v>3.551307169289204</v>
       </c>
       <c r="F47">
-        <v>2.996032329332112</v>
+        <v>2.677616160514661</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.215607160923012</v>
+        <v>3.206848985905066</v>
       </c>
       <c r="C48">
-        <v>3.801770609353146</v>
+        <v>3.394246619594782</v>
       </c>
       <c r="D48">
-        <v>3.819442383667112</v>
+        <v>4.57429404853284</v>
       </c>
       <c r="E48">
-        <v>3.154930236005352</v>
+        <v>3.593155615733883</v>
       </c>
       <c r="F48">
-        <v>3.030257003855529</v>
+        <v>2.703431196099035</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.272988625199253</v>
+        <v>3.246966705048343</v>
       </c>
       <c r="C49">
-        <v>3.857782020440204</v>
+        <v>3.441654147847591</v>
       </c>
       <c r="D49">
-        <v>3.875017501703438</v>
+        <v>4.638375685047587</v>
       </c>
       <c r="E49">
-        <v>3.193210009844106</v>
+        <v>3.636420764801156</v>
       </c>
       <c r="F49">
-        <v>3.066605675107545</v>
+        <v>2.730421735564366</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.331663003227187</v>
+        <v>3.289363005464652</v>
       </c>
       <c r="C50">
-        <v>3.916651396866392</v>
+        <v>3.491722194901068</v>
       </c>
       <c r="D50">
-        <v>3.932869735701847</v>
+        <v>4.703411704594679</v>
       </c>
       <c r="E50">
-        <v>3.233935472962088</v>
+        <v>3.681212680721158</v>
       </c>
       <c r="F50">
-        <v>3.105370062307132</v>
+        <v>2.758664814399937</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.391651330782539</v>
+        <v>3.334266034178818</v>
       </c>
       <c r="C51">
-        <v>3.978678399361393</v>
+        <v>3.54471163933994</v>
       </c>
       <c r="D51">
-        <v>3.993164332520368</v>
+        <v>4.769397260943411</v>
       </c>
       <c r="E51">
-        <v>3.277472776611952</v>
+        <v>3.727648021855672</v>
       </c>
       <c r="F51">
-        <v>3.146884904179113</v>
+        <v>2.788240097101633</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.452970078910492</v>
+        <v>3.381902644911348</v>
       </c>
       <c r="C52">
-        <v>4.044177157675597</v>
+        <v>3.600891486509827</v>
       </c>
       <c r="D52">
-        <v>4.056071808112644</v>
+        <v>4.836322760100585</v>
       </c>
       <c r="E52">
-        <v>3.324244187577168</v>
+        <v>3.775849198531207</v>
       </c>
       <c r="F52">
-        <v>3.191528681463282</v>
+        <v>2.819228968713573</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.51563068734641</v>
+        <v>3.43248335393073</v>
       </c>
       <c r="C53">
-        <v>4.113464615809404</v>
+        <v>3.660528258677693</v>
       </c>
       <c r="D53">
-        <v>4.121765369308666</v>
+        <v>4.904173850322323</v>
       </c>
       <c r="E53">
-        <v>3.374725529906134</v>
+        <v>3.825942792237462</v>
       </c>
       <c r="F53">
-        <v>3.239718767743609</v>
+        <v>2.851713283248439</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.579639061748424</v>
+        <v>3.486183005097859</v>
       </c>
       <c r="C54">
-        <v>4.186843176609398</v>
+        <v>3.723870804754362</v>
       </c>
       <c r="D54">
-        <v>4.190417310731671</v>
+        <v>4.972931483276194</v>
       </c>
       <c r="E54">
-        <v>3.429432506525973</v>
+        <v>3.878057012253969</v>
       </c>
       <c r="F54">
-        <v>3.291897324862437</v>
+        <v>2.885773679180859</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.644995055611327</v>
+        <v>3.543118964460465</v>
       </c>
       <c r="C55">
-        <v>4.264577254127265</v>
+        <v>3.791130890699668</v>
       </c>
       <c r="D55">
-        <v>4.262194298796111</v>
+        <v>5.042572046752023</v>
       </c>
       <c r="E55">
-        <v>3.488889135834196</v>
+        <v>3.93231773934107</v>
       </c>
       <c r="F55">
-        <v>3.348502861723054</v>
+        <v>2.921487449427774</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.71169195840834</v>
+        <v>3.603331062297678</v>
       </c>
       <c r="C56">
-        <v>4.346865820339769</v>
+        <v>3.862461188164523</v>
       </c>
       <c r="D56">
-        <v>4.337251470405117</v>
+        <v>5.113067570693954</v>
       </c>
       <c r="E56">
-        <v>3.553571906376092</v>
+        <v>3.988843648660638</v>
       </c>
       <c r="F56">
-        <v>3.409926323511383</v>
+        <v>2.958926062681813</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.779716013918637</v>
+        <v>3.666768721993391</v>
       </c>
       <c r="C57">
-        <v>4.433814699679916</v>
+        <v>3.937933707984249</v>
       </c>
       <c r="D57">
-        <v>4.415725559414041</v>
+        <v>5.18438600133754</v>
       </c>
       <c r="E57">
-        <v>3.623832603853143</v>
+        <v>4.047739800879217</v>
       </c>
       <c r="F57">
-        <v>3.47645179340995</v>
+        <v>2.99815225842991</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.849046015596916</v>
+        <v>3.733290775104755</v>
       </c>
       <c r="C58">
-        <v>4.525415051216756</v>
+        <v>4.017523290054693</v>
       </c>
       <c r="D58">
-        <v>4.497727404201098</v>
+        <v>5.256491541683752</v>
       </c>
       <c r="E58">
-        <v>3.699812627923314</v>
+        <v>4.109090213271733</v>
       </c>
       <c r="F58">
-        <v>3.548194399732005</v>
+        <v>3.039216914111761</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.919653021999441</v>
+        <v>3.802678051887926</v>
       </c>
       <c r="C59">
-        <v>4.621534960863242</v>
+        <v>4.101101389700394</v>
       </c>
       <c r="D59">
-        <v>4.583334312255187</v>
+        <v>5.329345043394031</v>
       </c>
       <c r="E59">
-        <v>3.781381559097704</v>
+        <v>4.172950059686894</v>
       </c>
       <c r="F59">
-        <v>3.625055355019758</v>
+        <v>3.082155906645991</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.991500237616049</v>
+        <v>3.874657293240331</v>
       </c>
       <c r="C60">
-        <v>4.721926791459405</v>
+        <v>4.188441754797466</v>
       </c>
       <c r="D60">
-        <v>4.672583306089027</v>
+        <v>5.402904438323481</v>
       </c>
       <c r="E60">
-        <v>3.868132961305884</v>
+        <v>4.239338380621724</v>
       </c>
       <c r="F60">
-        <v>3.70671677326408</v>
+        <v>3.126987200914715</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.064543086605117</v>
+        <v>3.948929325666801</v>
       </c>
       <c r="C61">
-        <v>4.826250796873153</v>
+        <v>4.279238601838024</v>
       </c>
       <c r="D61">
-        <v>4.765465871953008</v>
+        <v>5.477125196709506</v>
       </c>
       <c r="E61">
-        <v>3.959449478950814</v>
+        <v>4.308232467563458</v>
       </c>
       <c r="F61">
-        <v>3.792682916345554</v>
+        <v>3.173708510276838</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.138729520082531</v>
+        <v>4.025194964937512</v>
       </c>
       <c r="C62">
-        <v>4.934108464757364</v>
+        <v>4.37313292633367</v>
       </c>
       <c r="D62">
-        <v>4.861925215062074</v>
+        <v>5.551960798263597</v>
       </c>
       <c r="E62">
-        <v>4.054610205626609</v>
+        <v>4.379565036833737</v>
       </c>
       <c r="F62">
-        <v>3.882355922726878</v>
+        <v>3.222295820394567</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.21400054392537</v>
+        <v>4.10317421322906</v>
       </c>
       <c r="C63">
-        <v>5.045077835545777</v>
+        <v>4.469741226161738</v>
       </c>
       <c r="D63">
-        <v>4.961856536958407</v>
+        <v>5.627363200706982</v>
       </c>
       <c r="E63">
-        <v>4.152898490710947</v>
+        <v>4.453225087767729</v>
       </c>
       <c r="F63">
-        <v>3.975117641022806</v>
+        <v>3.272703049918535</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.290290950420874</v>
+        <v>4.182617340657653</v>
       </c>
       <c r="C64">
-        <v>5.158743685363318</v>
+        <v>4.568681288708514</v>
       </c>
       <c r="D64">
-        <v>5.0651105770401</v>
+        <v>5.703283295092164</v>
       </c>
       <c r="E64">
-        <v>4.253675880561909</v>
+        <v>4.529062669240421</v>
       </c>
       <c r="F64">
-        <v>4.07039348911944</v>
+        <v>3.324862970128809</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.367530216684396</v>
+        <v>4.263308989540687</v>
       </c>
       <c r="C65">
-        <v>5.27471878473</v>
+        <v>4.669591600947442</v>
       </c>
       <c r="D65">
-        <v>5.171500056003854</v>
+        <v>5.779671337920694</v>
       </c>
       <c r="E65">
-        <v>4.356414829429904</v>
+        <v>4.606896526140869</v>
       </c>
       <c r="F65">
-        <v>4.167688080807746</v>
+        <v>3.378689340520318</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.445643513263954</v>
+        <v>4.345067416111698</v>
       </c>
       <c r="C66">
-        <v>5.392655885657121</v>
+        <v>4.772143451651893</v>
       </c>
       <c r="D66">
-        <v>5.280808304370852</v>
+        <v>5.856477351703616</v>
       </c>
       <c r="E66">
-        <v>4.460700258963885</v>
+        <v>4.68652403261564</v>
       </c>
       <c r="F66">
-        <v>4.266595869434089</v>
+        <v>3.434080105754673</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.524552761035811</v>
+        <v>4.427741032313017</v>
       </c>
       <c r="C67">
-        <v>5.512251959122728</v>
+        <v>4.87604651559343</v>
       </c>
       <c r="D67">
-        <v>5.39279900868778</v>
+        <v>5.933651488404575</v>
       </c>
       <c r="E67">
-        <v>4.566214726120315</v>
+        <v>4.767731528192056</v>
       </c>
       <c r="F67">
-        <v>4.36679574396516</v>
+        <v>3.49092129212094</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.604177687463572</v>
+        <v>4.511203868033428</v>
       </c>
       <c r="C68">
-        <v>5.633247247645497</v>
+        <v>4.981049602445233</v>
       </c>
       <c r="D68">
-        <v>5.507225985785094</v>
+        <v>6.011144355202505</v>
       </c>
       <c r="E68">
-        <v>4.672718449385605</v>
+        <v>4.850303877060435</v>
       </c>
       <c r="F68">
-        <v>4.468038190858129</v>
+        <v>3.549091230435612</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.684436830505851</v>
+        <v>4.595350973659515</v>
       </c>
       <c r="C69">
-        <v>5.755421369532921</v>
+        <v>5.086938351912405</v>
       </c>
       <c r="D69">
-        <v>5.623842032114443</v>
+        <v>6.088907297468371</v>
       </c>
       <c r="E69">
-        <v>4.780030316384358</v>
+        <v>4.934032281247954</v>
       </c>
       <c r="F69">
-        <v>4.57013077353431</v>
+        <v>3.608464714769502</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.765248452684698</v>
+        <v>4.68009428275731</v>
       </c>
       <c r="C70">
-        <v>5.878588159171329</v>
+        <v>5.193531326148892</v>
       </c>
       <c r="D70">
-        <v>5.742406219765462</v>
+        <v>6.166892641798638</v>
       </c>
       <c r="E70">
-        <v>4.888012246961155</v>
+        <v>5.018719927306974</v>
       </c>
       <c r="F70">
-        <v>4.672924876813511</v>
+        <v>3.66891676019622</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.846531351698268</v>
+        <v>4.765359131850087</v>
       </c>
       <c r="C71">
-        <v>6.002590311971342</v>
+        <v>5.300675527212108</v>
       </c>
       <c r="D71">
-        <v>5.862689337721346</v>
+        <v>6.245053899330806</v>
       </c>
       <c r="E71">
-        <v>4.996557255782063</v>
+        <v>5.104185493901679</v>
       </c>
       <c r="F71">
-        <v>4.776304797992709</v>
+        <v>3.730325756276386</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.928205552061148</v>
+        <v>4.851081454539358</v>
       </c>
       <c r="C72">
-        <v>6.127294415053572</v>
+        <v>5.408241975444666</v>
       </c>
       <c r="D72">
-        <v>5.984477501859576</v>
+        <v>6.323345934486575</v>
       </c>
       <c r="E72">
-        <v>5.105580724316544</v>
+        <v>5.190264827136966</v>
       </c>
       <c r="F72">
-        <v>4.880179275964893</v>
+        <v>3.792575881168358</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.010192878479762</v>
+        <v>4.937205576209673</v>
       </c>
       <c r="C73">
-        <v>6.252586622831716</v>
+        <v>5.516121679858419</v>
       </c>
       <c r="D73">
-        <v>6.107574145980999</v>
+        <v>6.401725097169565</v>
       </c>
       <c r="E73">
-        <v>5.215014157516553</v>
+        <v>5.276811225247847</v>
       </c>
       <c r="F73">
-        <v>4.984475143867001</v>
+        <v>3.855558795569013</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.092417418107112</v>
+        <v>5.023682509084426</v>
       </c>
       <c r="C74">
-        <v>6.378369022941663</v>
+        <v>5.624222147950323</v>
       </c>
       <c r="D74">
-        <v>6.231800725282349</v>
+        <v>6.480149325675753</v>
       </c>
       <c r="E74">
-        <v>5.324800772362822</v>
+        <v>5.363694771991119</v>
       </c>
       <c r="F74">
-        <v>5.089132626098403</v>
+        <v>3.919174662487915</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.174805879267612</v>
+        <v>5.110468647320156</v>
       </c>
       <c r="C75">
-        <v>6.504556687516589</v>
+        <v>5.732464444822507</v>
       </c>
       <c r="D75">
-        <v>6.356996466154361</v>
+        <v>6.55857822295455</v>
       </c>
       <c r="E75">
-        <v>5.434892454710447</v>
+        <v>5.450801103063581</v>
       </c>
       <c r="F75">
-        <v>5.194101947180841</v>
+        <v>3.983332599545064</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.257287857923257</v>
+        <v>5.197524774875968</v>
       </c>
       <c r="C76">
-        <v>6.631075300431964</v>
+        <v>5.84078074264865</v>
       </c>
       <c r="D76">
-        <v>6.483017505944188</v>
+        <v>6.636973108340252</v>
       </c>
       <c r="E76">
-        <v>5.54524757393676</v>
+        <v>5.538029892872419</v>
       </c>
       <c r="F76">
-        <v>5.299340907179433</v>
+        <v>4.047950701279714</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.33979602921597</v>
+        <v>5.284815291682748</v>
       </c>
       <c r="C77">
-        <v>6.757859256988189</v>
+        <v>5.949112393610623</v>
       </c>
       <c r="D77">
-        <v>6.609735638974879</v>
+        <v>6.715297047569136</v>
       </c>
       <c r="E77">
-        <v>5.655829466493477</v>
+        <v>5.625293270261059</v>
       </c>
       <c r="F77">
-        <v>5.404813068579109</v>
+        <v>4.112955736534101</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.422266274836503</v>
+        <v>5.372307638031111</v>
       </c>
       <c r="C78">
-        <v>6.884850172237405</v>
+        <v>6.057408331602136</v>
       </c>
       <c r="D78">
-        <v>6.737036866861781</v>
+        <v>6.79351486632245</v>
       </c>
       <c r="E78">
-        <v>5.766605364458613</v>
+        <v>5.712514271253645</v>
       </c>
       <c r="F78">
-        <v>5.510486474886751</v>
+        <v>4.178282636975909</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.50463774839117</v>
+        <v>5.459971850130626</v>
       </c>
       <c r="C79">
-        <v>7.011995694618256</v>
+        <v>6.165623792376373</v>
       </c>
       <c r="D79">
-        <v>6.8648199351675</v>
+        <v>6.871593148306395</v>
       </c>
       <c r="E79">
-        <v>5.87754562219937</v>
+        <v>5.799625407628164</v>
       </c>
       <c r="F79">
-        <v>5.61633271624449</v>
+        <v>4.243873862245973</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.586852892350289</v>
+        <v>5.547780215469413</v>
       </c>
       <c r="C80">
-        <v>7.139248567612365</v>
+        <v>6.273719284183901</v>
       </c>
       <c r="D80">
-        <v>6.992994901731566</v>
+        <v>6.949500220863091</v>
       </c>
       <c r="E80">
-        <v>5.988623162369302</v>
+        <v>5.886567404989799</v>
       </c>
       <c r="F80">
-        <v>5.722326236443754</v>
+        <v>4.309678705098765</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.668857428340253</v>
+        <v>5.63570698939112</v>
       </c>
       <c r="C81">
-        <v>7.266565884950155</v>
+        <v>6.381659779670107</v>
       </c>
       <c r="D81">
-        <v>7.121481790052032</v>
+        <v>7.027206129684932</v>
       </c>
       <c r="E81">
-        <v>6.099813066939364</v>
+        <v>5.973288089889373</v>
       </c>
       <c r="F81">
-        <v>5.828443825363177</v>
+        <v>4.375652588371133</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.75060031752205</v>
+        <v>5.723728176650282</v>
       </c>
       <c r="C82">
-        <v>7.393908493841552</v>
+        <v>6.489414046417004</v>
       </c>
       <c r="D82">
-        <v>7.250209373067883</v>
+        <v>7.104682605444436</v>
       </c>
       <c r="E82">
-        <v>6.211092272212314</v>
+        <v>6.059741427843922</v>
       </c>
       <c r="F82">
-        <v>5.934664236692029</v>
+        <v>4.441756383186658</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.832033693197721</v>
+        <v>5.811821359675643</v>
       </c>
       <c r="C83">
-        <v>7.521240515038453</v>
+        <v>6.596954114231793</v>
       </c>
       <c r="D83">
-        <v>7.379114087366871</v>
+        <v>7.181903023616559</v>
       </c>
       <c r="E83">
-        <v>6.322439337433654</v>
+        <v>6.14588670797159</v>
       </c>
       <c r="F83">
-        <v>6.040967897768818</v>
+        <v>4.507955770042325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.913112776978012</v>
+        <v>5.899965552311881</v>
       </c>
       <c r="C84">
-        <v>7.648528952971059</v>
+        <v>6.704254839615794</v>
       </c>
       <c r="D84">
-        <v>7.508139073303906</v>
+        <v>7.258842358926154</v>
       </c>
       <c r="E84">
-        <v>6.433834264780356</v>
+        <v>6.231687843864177</v>
       </c>
       <c r="F84">
-        <v>6.147336687572356</v>
+        <v>4.574220653035435</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.993795783008677</v>
+        <v>5.988141077236632</v>
       </c>
       <c r="C85">
-        <v>7.775743377455356</v>
+        <v>6.81129354967918</v>
       </c>
       <c r="D85">
-        <v>7.637233340909703</v>
+        <v>7.335477135633806</v>
       </c>
       <c r="E85">
-        <v>6.545258354234448</v>
+        <v>6.317112788825164</v>
       </c>
       <c r="F85">
-        <v>6.253753762575447</v>
+        <v>4.640524631355713</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.074043812855709</v>
+        <v>6.076329465447737</v>
       </c>
       <c r="C86">
-        <v>7.902855655966952</v>
+        <v>6.918049747447157</v>
       </c>
       <c r="D86">
-        <v>7.766351045619006</v>
+        <v>7.411785374946275</v>
       </c>
       <c r="E86">
-        <v>6.656694088301177</v>
+        <v>6.402133037522801</v>
       </c>
       <c r="F86">
-        <v>6.360203419148903</v>
+        <v>4.706844530031458</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.153820743284479</v>
+        <v>6.164513367855598</v>
       </c>
       <c r="C87">
-        <v>8.029839729419884</v>
+        <v>7.02450486658149</v>
       </c>
       <c r="D87">
-        <v>7.895450862228043</v>
+        <v>7.487746540398978</v>
       </c>
       <c r="E87">
-        <v>6.768125037839114</v>
+        <v>6.486723201842479</v>
       </c>
       <c r="F87">
-        <v>6.466670980047707</v>
+        <v>4.773159987407974</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.233093110786393</v>
+        <v>6.252676477713332</v>
       </c>
       <c r="C88">
-        <v>8.15667142933169</v>
+        <v>7.130642066673351</v>
       </c>
       <c r="D88">
-        <v>8.02449544756055</v>
+        <v>7.563341481850332</v>
       </c>
       <c r="E88">
-        <v>6.879535779801667</v>
+        <v>6.570860655029926</v>
       </c>
       <c r="F88">
-        <v>6.573142700856234</v>
+        <v>4.839453090443523</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.31182999220638</v>
+        <v>6.340803462816605</v>
       </c>
       <c r="C89">
-        <v>8.2833283178134</v>
+        <v>7.236446058319634</v>
       </c>
       <c r="D89">
-        <v>8.153450978385628</v>
+        <v>7.638552378849185</v>
       </c>
       <c r="E89">
-        <v>6.99091182519421</v>
+        <v>6.654525226152665</v>
       </c>
       <c r="F89">
-        <v>6.679605695470235</v>
+        <v>4.905708053784812</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.390002886285393</v>
+        <v>6.42887990470997</v>
       </c>
       <c r="C90">
-        <v>8.409789544542139</v>
+        <v>7.341902955615553</v>
       </c>
       <c r="D90">
-        <v>8.282286751263618</v>
+        <v>7.713362683879355</v>
       </c>
       <c r="E90">
-        <v>7.102239557611933</v>
+        <v>6.737698937627349</v>
       </c>
       <c r="F90">
-        <v>6.786047871117566</v>
+        <v>4.971910950751803</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.467585595477621</v>
+        <v>6.516892243272408</v>
       </c>
       <c r="C91">
-        <v>8.53603572488926</v>
+        <v>7.447000147874176</v>
       </c>
       <c r="D91">
-        <v>8.410974830663315</v>
+        <v>7.787757066136224</v>
       </c>
       <c r="E91">
-        <v>7.213506178725821</v>
+        <v>6.820365781510709</v>
       </c>
       <c r="F91">
-        <v>6.892457869784555</v>
+        <v>5.038049480347982</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.544554109562593</v>
+        <v>6.604827726368848</v>
       </c>
       <c r="C92">
-        <v>8.662048833279748</v>
+        <v>7.55172618594497</v>
       </c>
       <c r="D92">
-        <v>8.539489758330312</v>
+        <v>7.861721355827306</v>
       </c>
       <c r="E92">
-        <v>7.324699659031275</v>
+        <v>6.902511524397672</v>
       </c>
       <c r="F92">
-        <v>6.998825017474071</v>
+        <v>5.104112760386402</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.620886491519667</v>
+        <v>6.692674363580728</v>
       </c>
       <c r="C93">
-        <v>8.787812107689851</v>
+        <v>7.656070684044829</v>
       </c>
       <c r="D93">
-        <v>8.667808301893512</v>
+        <v>7.935242488765567</v>
       </c>
       <c r="E93">
-        <v>7.435808691205919</v>
+        <v>6.984123539542926</v>
       </c>
       <c r="F93">
-        <v>7.105139279993328</v>
+        <v>5.17009114774917</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.696562766330685</v>
+        <v>6.780420883375594</v>
       </c>
       <c r="C94">
-        <v>8.913309964687841</v>
+        <v>7.76002423574994</v>
       </c>
       <c r="D94">
-        <v>8.795909229473061</v>
+        <v>8.008308453149684</v>
       </c>
       <c r="E94">
-        <v>7.546822647795767</v>
+        <v>7.065190657745175</v>
       </c>
       <c r="F94">
-        <v>7.211391223743046</v>
+        <v>5.23597608615184</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7.771564813052285</v>
+        <v>6.868056692952829</v>
       </c>
       <c r="C95">
-        <v>9.03852791889118</v>
+        <v>7.863578338551926</v>
       </c>
       <c r="D95">
-        <v>8.923773111040012</v>
+        <v>8.080908237294762</v>
       </c>
       <c r="E95">
-        <v>7.657731543652956</v>
+        <v>7.14570303344742</v>
       </c>
       <c r="F95">
-        <v>7.317571979159551</v>
+        <v>5.301759975793231</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.845876261166533</v>
+        <v>6.955571840590362</v>
       </c>
       <c r="C96">
-        <v>9.163452509320349</v>
+        <v>7.966725324147775</v>
       </c>
       <c r="D96">
-        <v>9.051382148619959</v>
+        <v>8.153031779804557</v>
       </c>
       <c r="E96">
-        <v>7.768526000328078</v>
+        <v>7.225652030703052</v>
       </c>
       <c r="F96">
-        <v>7.42367320778201</v>
+        <v>5.36743605981382</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.919482390276885</v>
+        <v>7.042956981083814</v>
       </c>
       <c r="C97">
-        <v>9.288071238837276</v>
+        <v>8.069458295015108</v>
       </c>
       <c r="D97">
-        <v>9.178720028848346</v>
+        <v>8.224669919719533</v>
       </c>
       <c r="E97">
-        <v>7.879197213044596</v>
+        <v>7.305030122757862</v>
       </c>
       <c r="F97">
-        <v>7.529687068376933</v>
+        <v>5.432998325296398</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.992370033848645</v>
+        <v>7.130203343189067</v>
       </c>
       <c r="C98">
-        <v>9.412372513945998</v>
+        <v>8.171771068075861</v>
       </c>
       <c r="D98">
-        <v>9.305771794446773</v>
+        <v>8.295814349220684</v>
       </c>
       <c r="E98">
-        <v>7.989736918903852</v>
+        <v>7.383830801418431</v>
       </c>
       <c r="F98">
-        <v>7.635606191880562</v>
+        <v>5.4984414177267</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.064527486695045</v>
+        <v>7.217302699227504</v>
       </c>
       <c r="C99">
-        <v>9.536345588224359</v>
+        <v>8.273658124108614</v>
       </c>
       <c r="D99">
-        <v>9.432523724120623</v>
+        <v>8.366457568392887</v>
       </c>
       <c r="E99">
-        <v>8.100137367556282</v>
+        <v>7.462048493754065</v>
       </c>
       <c r="F99">
-        <v>7.741423655118676</v>
+        <v>5.563760567237232</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>8.135944415589778</v>
+        <v>7.304247335398337</v>
       </c>
       <c r="C100">
-        <v>9.659980514669202</v>
+        <v>8.375114561334614</v>
       </c>
       <c r="D100">
-        <v>9.558963234888298</v>
+        <v>8.436592840977656</v>
       </c>
       <c r="E100">
-        <v>8.210391292588744</v>
+        <v>7.53967848512672</v>
       </c>
       <c r="F100">
-        <v>7.847132955722635</v>
+        <v>5.628951527509182</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8.206611779346325</v>
+        <v>7.391030023974304</v>
       </c>
       <c r="C101">
-        <v>9.783268094860883</v>
+        <v>8.476136054522854</v>
       </c>
       <c r="D101">
-        <v>9.685078768923233</v>
+        <v>8.506214152429372</v>
       </c>
       <c r="E101">
-        <v>8.320491885972697</v>
+        <v>7.616716851096649</v>
       </c>
       <c r="F101">
-        <v>7.952727988676962</v>
+        <v>5.694010513150668</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8.276521747553849</v>
+        <v>7.477643997739452</v>
       </c>
       <c r="C102">
-        <v>9.906199834233993</v>
+        <v>8.576718810281594</v>
       </c>
       <c r="D102">
-        <v>9.810859732067593</v>
+        <v>8.575316169731297</v>
       </c>
       <c r="E102">
-        <v>8.430432773374665</v>
+        <v>7.693160396916422</v>
       </c>
       <c r="F102">
-        <v>8.05820302512997</v>
+        <v>5.758934152352877</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.345667624581415</v>
+        <v>7.564082925327966</v>
       </c>
       <c r="C103">
-        <v>10.02876790054058</v>
+        <v>8.676859537330621</v>
       </c>
       <c r="D103">
-        <v>9.936296421329187</v>
+        <v>8.643894202462159</v>
       </c>
       <c r="E103">
-        <v>8.54020799060101</v>
+        <v>7.769006601634246</v>
       </c>
       <c r="F103">
-        <v>8.163552691365174</v>
+        <v>5.823719448393813</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8.414043776898081</v>
+        <v>7.6503408880468</v>
       </c>
       <c r="C104">
-        <v>10.15096508461524</v>
+        <v>8.776555400944915</v>
       </c>
       <c r="D104">
-        <v>10.06137994677271</v>
+        <v>8.711944166461992</v>
       </c>
       <c r="E104">
-        <v>8.649811962813477</v>
+        <v>7.844253566455351</v>
       </c>
       <c r="F104">
-        <v>8.26877195012163</v>
+        <v>5.888363730646634</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.481645564719276</v>
+        <v>7.736412357868246</v>
       </c>
       <c r="C105">
-        <v>10.27278476596623</v>
+        <v>8.87580400209727</v>
       </c>
       <c r="D105">
-        <v>10.18610218189135</v>
+        <v>8.779462548447537</v>
       </c>
       <c r="E105">
-        <v>8.759239482778289</v>
+        <v>7.918899967663733</v>
       </c>
       <c r="F105">
-        <v>8.373856081731075</v>
+        <v>5.952864637309873</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>8.548469278678997</v>
+        <v>7.822292177791014</v>
       </c>
       <c r="C106">
-        <v>10.39422087729623</v>
+        <v>8.974603349364589</v>
       </c>
       <c r="D106">
-        <v>10.31045570267112</v>
+        <v>8.846446372450359</v>
       </c>
       <c r="E106">
-        <v>8.868485690551696</v>
+        <v>7.992945015555918</v>
       </c>
       <c r="F106">
-        <v>8.478800668308605</v>
+        <v>6.017220080175083</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8.614512077842681</v>
+        <v>7.907975538825196</v>
       </c>
       <c r="C107">
-        <v>10.51526787264497</v>
+        <v>9.072951820545674</v>
       </c>
       <c r="D107">
-        <v>10.43443373784982</v>
+        <v>8.912893167886313</v>
       </c>
       <c r="E107">
-        <v>8.977546054062245</v>
+        <v>8.066388405226546</v>
       </c>
       <c r="F107">
-        <v>8.583601577104634</v>
+        <v>6.081428216429445</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.679771932261414</v>
+        <v>7.99345796639583</v>
       </c>
       <c r="C108">
-        <v>10.63592069793845</v>
+        <v>9.170848153731409</v>
       </c>
       <c r="D108">
-        <v>10.55803011696903</v>
+        <v>8.978800939266318</v>
       </c>
       <c r="E108">
-        <v>9.086416353790645</v>
+        <v>8.139230291026433</v>
       </c>
       <c r="F108">
-        <v>8.688254945311016</v>
+        <v>6.145487426039004</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>8.744247567430499</v>
+        <v>8.078735293863927</v>
       </c>
       <c r="C109">
-        <v>10.75617476077742</v>
+        <v>9.268291410325256</v>
       </c>
       <c r="D109">
-        <v>10.68123923815227</v>
+        <v>9.044168138397358</v>
       </c>
       <c r="E109">
-        <v>9.19509266210305</v>
+        <v>8.211471235251526</v>
       </c>
       <c r="F109">
-        <v>8.792757166243533</v>
+        <v>6.20939629185122</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8.807938415729744</v>
+        <v>8.163803656915389</v>
       </c>
       <c r="C110">
-        <v>10.87602590427949</v>
+        <v>9.365280957812002</v>
       </c>
       <c r="D110">
-        <v>10.80405602612698</v>
+        <v>9.108993633618342</v>
       </c>
       <c r="E110">
-        <v>9.303571334889615</v>
+        <v>8.283112194212327</v>
       </c>
       <c r="F110">
-        <v>8.897104874243581</v>
+        <v>6.273153581546182</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.870844566024186</v>
+        <v>8.24865946706606</v>
       </c>
       <c r="C111">
-        <v>10.99547037954886</v>
+        <v>9.461816450000889</v>
       </c>
       <c r="D111">
-        <v>10.9264758942098</v>
+        <v>9.173276690867018</v>
       </c>
       <c r="E111">
-        <v>9.411848986636986</v>
+        <v>8.354154479151306</v>
       </c>
       <c r="F111">
-        <v>9.001294933572847</v>
+        <v>6.336758228493368</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>8.932966714205437</v>
+        <v>8.333299405526386</v>
       </c>
       <c r="C112">
-        <v>11.11450482193017</v>
+        <v>9.557897801912343</v>
       </c>
       <c r="D112">
-        <v>11.04849471654103</v>
+        <v>9.237016933756998</v>
       </c>
       <c r="E112">
-        <v>9.519922487680574</v>
+        <v>8.424599729191451</v>
       </c>
       <c r="F112">
-        <v>9.105324422646365</v>
+        <v>6.400209322278662</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.994306124285949</v>
+        <v>8.417720404151025</v>
       </c>
       <c r="C113">
-        <v>11.23312623421209</v>
+        <v>9.653525179215116</v>
       </c>
       <c r="D113">
-        <v>11.1701087953411</v>
+        <v>9.300214341975115</v>
       </c>
       <c r="E113">
-        <v>9.627788939384171</v>
+        <v>8.494449896244241</v>
       </c>
       <c r="F113">
-        <v>9.209190626578957</v>
+        <v>6.463506093075708</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9.05486457840629</v>
+        <v>8.501919632515451</v>
       </c>
       <c r="C114">
-        <v>11.35133195582028</v>
+        <v>9.748698976119833</v>
       </c>
       <c r="D114">
-        <v>11.29131483195502</v>
+        <v>9.362869204396972</v>
       </c>
       <c r="E114">
-        <v>9.735445671331302</v>
+        <v>8.563707203609464</v>
       </c>
       <c r="F114">
-        <v>9.312891023639979</v>
+        <v>6.526647899257274</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>9.114644355220076</v>
+        <v>8.585894486734114</v>
       </c>
       <c r="C115">
-        <v>11.46911965633343</v>
+        <v>9.843419801119847</v>
       </c>
       <c r="D115">
-        <v>11.41210990119412</v>
+        <v>9.424982123615216</v>
       </c>
       <c r="E115">
-        <v>9.842890220032716</v>
+        <v>8.632374139665783</v>
       </c>
       <c r="F115">
-        <v>9.416423276268377</v>
+        <v>6.589634217663763</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9.173648174312566</v>
+        <v>8.669642573004309</v>
       </c>
       <c r="C116">
-        <v>11.58648730282379</v>
+        <v>9.937688463995045</v>
       </c>
       <c r="D116">
-        <v>11.53249142861107</v>
+        <v>9.486553974030967</v>
       </c>
       <c r="E116">
-        <v>9.950120325025004</v>
+        <v>8.700453422925165</v>
       </c>
       <c r="F116">
-        <v>9.519785221656937</v>
+        <v>6.652464633710252</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9.231879184087065</v>
+        <v>8.753161701808256</v>
       </c>
       <c r="C117">
-        <v>11.70343315380343</v>
+        <v>10.03150595774767</v>
       </c>
       <c r="D117">
-        <v>11.65245716726132</v>
+        <v>9.547585900751066</v>
       </c>
       <c r="E117">
-        <v>10.05713391104962</v>
+        <v>8.767947994321949</v>
       </c>
       <c r="F117">
-        <v>9.622974861336719</v>
+        <v>6.715138834567489</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9.289340911069303</v>
+        <v>8.836449870846543</v>
       </c>
       <c r="C118">
-        <v>11.81995573278356</v>
+        <v>10.12487344922866</v>
       </c>
       <c r="D118">
-        <v>11.77200517524686</v>
+        <v>9.608079288206198</v>
       </c>
       <c r="E118">
-        <v>10.16392908511544</v>
+        <v>8.834860989001427</v>
       </c>
       <c r="F118">
-        <v>9.725990353379911</v>
+        <v>6.777656595107827</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>9.346037243601392</v>
+        <v>8.919505260350984</v>
       </c>
       <c r="C119">
-        <v>11.93605381858839</v>
+        <v>10.21779226509752</v>
       </c>
       <c r="D119">
-        <v>11.89113379903741</v>
+        <v>9.668035751332363</v>
       </c>
       <c r="E119">
-        <v>10.27050411988712</v>
+        <v>8.901195727483913</v>
       </c>
       <c r="F119">
-        <v>9.828830003276517</v>
+        <v>6.840017779193692</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9.40197239468603</v>
+        <v>9.00232621890825</v>
       </c>
       <c r="C120">
-        <v>12.0517264249326</v>
+        <v>10.310263878983</v>
       </c>
       <c r="D120">
-        <v>12.00984165372806</v>
+        <v>9.727457115290594</v>
       </c>
       <c r="E120">
-        <v>10.37685745028704</v>
+        <v>8.966955696206345</v>
       </c>
       <c r="F120">
-        <v>9.931492255867147</v>
+        <v>6.902222323550109</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>9.457150878274771</v>
+        <v>9.084911256763183</v>
       </c>
       <c r="C121">
-        <v>12.16697278986963</v>
+        <v>10.40228990388969</v>
       </c>
       <c r="D121">
-        <v>12.12812760704024</v>
+        <v>9.786345401782869</v>
       </c>
       <c r="E121">
-        <v>10.48298766062476</v>
+        <v>9.032144532140178</v>
       </c>
       <c r="F121">
-        <v>10.03397568800345</v>
+        <v>6.964270237343101</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>9.511577483898332</v>
+        <v>9.167259036554732</v>
       </c>
       <c r="C122">
-        <v>12.28179235929315</v>
+        <v>10.49387207844858</v>
       </c>
       <c r="D122">
-        <v>12.24599076165689</v>
+        <v>9.844702816472243</v>
       </c>
       <c r="E122">
-        <v>10.58889347876113</v>
+        <v>9.096766014234621</v>
       </c>
       <c r="F122">
-        <v>10.13627900053543</v>
+        <v>7.026161599422049</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>9.565257249122123</v>
+        <v>9.249368363177233</v>
       </c>
       <c r="C123">
-        <v>12.39618477853015</v>
+        <v>10.58501225998966</v>
       </c>
       <c r="D123">
-        <v>12.36343043979038</v>
+        <v>9.902531731136328</v>
       </c>
       <c r="E123">
-        <v>10.69457376735348</v>
+        <v>9.160824042073264</v>
       </c>
       <c r="F123">
-        <v>10.23840101303635</v>
+        <v>7.087896542890358</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>9.618195446211578</v>
+        <v>9.331238179132521</v>
       </c>
       <c r="C124">
-        <v>12.51014987568368</v>
+        <v>10.67571241509287</v>
       </c>
       <c r="D124">
-        <v>12.48044617333463</v>
+        <v>9.959834678284535</v>
       </c>
       <c r="E124">
-        <v>10.80002751557061</v>
+        <v>9.224322633320364</v>
       </c>
       <c r="F124">
-        <v>10.3403406562102</v>
+        <v>7.149475266930572</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>9.670397551666756</v>
+        <v>9.41286755289901</v>
       </c>
       <c r="C125">
-        <v>12.62368765643412</v>
+        <v>10.76597460930784</v>
       </c>
       <c r="D125">
-        <v>12.59703767704991</v>
+        <v>10.01661432999706</v>
       </c>
       <c r="E125">
-        <v>10.90525383450842</v>
+        <v>9.287265903603387</v>
       </c>
       <c r="F125">
-        <v>10.44209696710078</v>
+        <v>7.210898014636613</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.721869237635506</v>
+        <v>9.494255675975198</v>
       </c>
       <c r="C126">
-        <v>12.73679828687353</v>
+        <v>10.85580100216893</v>
       </c>
       <c r="D126">
-        <v>12.713204863335</v>
+        <v>10.072873496552</v>
       </c>
       <c r="E126">
-        <v>11.01025194650662</v>
+        <v>9.349658063528123</v>
       </c>
       <c r="F126">
-        <v>10.54366908279956</v>
+        <v>7.27216508484687</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>9.772616342876633</v>
+        <v>9.575401852407062</v>
       </c>
       <c r="C127">
-        <v>12.8494820890052</v>
+        <v>10.94519383733469</v>
       </c>
       <c r="D127">
-        <v>12.82894779396628</v>
+        <v>10.1286151065226</v>
       </c>
       <c r="E127">
-        <v>11.11502118381423</v>
+        <v>9.411503402984525</v>
       </c>
       <c r="F127">
-        <v>10.64505623502968</v>
+        <v>7.333276815965523</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>9.822644867596953</v>
+        <v>9.656305495344974</v>
       </c>
       <c r="C128">
-        <v>12.96173952614926</v>
+        <v>11.03415543677587</v>
       </c>
       <c r="D128">
-        <v>12.94426671089586</v>
+        <v>10.18384220491</v>
       </c>
       <c r="E128">
-        <v>11.21956097731607</v>
+        <v>9.47280628617286</v>
       </c>
       <c r="F128">
-        <v>10.74625774493733</v>
+        <v>7.394233591488833</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9.871960945000946</v>
+        <v>9.736966119064235</v>
       </c>
       <c r="C129">
-        <v>13.07357119730974</v>
+        <v>11.12268819463875</v>
       </c>
       <c r="D129">
-        <v>13.05916198692539</v>
+        <v>10.23855793658564</v>
       </c>
       <c r="E129">
-        <v>11.3238708560813</v>
+        <v>9.533571141352381</v>
       </c>
       <c r="F129">
-        <v>10.84727301806627</v>
+        <v>7.455035829478913</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>9.920570839375603</v>
+        <v>9.817383333923484</v>
       </c>
       <c r="C130">
-        <v>13.18497782630373</v>
+        <v>11.21079456944214</v>
       </c>
       <c r="D130">
-        <v>13.17363414889956</v>
+        <v>10.29276554344676</v>
       </c>
       <c r="E130">
-        <v>11.42795043718816</v>
+        <v>9.593802452199556</v>
       </c>
       <c r="F130">
-        <v>10.94810153925932</v>
+        <v>7.515683986578118</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>9.968480917931503</v>
+        <v>9.897556841684459</v>
       </c>
       <c r="C131">
-        <v>13.2959602565415</v>
+        <v>11.29847708044675</v>
       </c>
       <c r="D131">
-        <v>13.28768384332933</v>
+        <v>10.34646835121884</v>
       </c>
       <c r="E131">
-        <v>11.53179942492645</v>
+        <v>9.653504753538959</v>
       </c>
       <c r="F131">
-        <v>11.0487428693787</v>
+        <v>7.576178547813337</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>10.01569765307972</v>
+        <v>9.977486428231877</v>
       </c>
       <c r="C132">
-        <v>13.40651943995292</v>
+        <v>11.3857383008455</v>
       </c>
       <c r="D132">
-        <v>13.40131184578415</v>
+        <v>10.39966976512644</v>
       </c>
       <c r="E132">
-        <v>11.63541760226812</v>
+        <v>9.712682619533451</v>
       </c>
       <c r="F132">
-        <v>11.14919664008371</v>
+        <v>7.636520032277975</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.06222759357684</v>
+        <v>10.05717196156031</v>
       </c>
       <c r="C133">
-        <v>13.51665643368183</v>
+        <v>11.47258085300055</v>
       </c>
       <c r="D133">
-        <v>13.51451904049834</v>
+        <v>10.45237326049675</v>
       </c>
       <c r="E133">
-        <v>11.73880482940528</v>
+        <v>9.771340662812415</v>
       </c>
       <c r="F133">
-        <v>11.24946255067841</v>
+        <v>7.696708983459191</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.10807737037413</v>
+        <v>10.13661338424704</v>
       </c>
       <c r="C134">
-        <v>13.6263723896812</v>
+        <v>11.5590074044668</v>
       </c>
       <c r="D134">
-        <v>13.62730642003516</v>
+        <v>10.50458237618639</v>
       </c>
       <c r="E134">
-        <v>11.84196103692233</v>
+        <v>9.829483523289111</v>
       </c>
       <c r="F134">
-        <v>11.34954036382855</v>
+        <v>7.75674597262151</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10.15325366895116</v>
+        <v>10.21581071165632</v>
       </c>
       <c r="C135">
-        <v>13.73566855192466</v>
+        <v>11.64502066220736</v>
       </c>
       <c r="D135">
-        <v>13.73967507458225</v>
+        <v>10.55630070943985</v>
       </c>
       <c r="E135">
-        <v>11.94488622359028</v>
+        <v>9.887115866948848</v>
       </c>
       <c r="F135">
-        <v>11.44942990259194</v>
+        <v>7.816631594080254</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.19776323576623</v>
+        <v>10.29476402567992</v>
       </c>
       <c r="C136">
-        <v>13.84454624696493</v>
+        <v>11.73062336975198</v>
       </c>
       <c r="D136">
-        <v>13.85162618558645</v>
+        <v>10.60753190669252</v>
       </c>
       <c r="E136">
-        <v>12.0475804512361</v>
+        <v>9.944242377269074</v>
       </c>
       <c r="F136">
-        <v>11.54913104659528</v>
+        <v>7.876366463880603</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.24161285361529</v>
+        <v>10.37347347232068</v>
       </c>
       <c r="C137">
-        <v>13.95300688127787</v>
+        <v>11.81581830390607</v>
       </c>
       <c r="D137">
-        <v>13.96316102355923</v>
+        <v>10.65827966202745</v>
       </c>
       <c r="E137">
-        <v>12.15004384168017</v>
+        <v>10.00086775266415</v>
       </c>
       <c r="F137">
-        <v>11.64864372924516</v>
+        <v>7.935951218884305</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>10.28480934718927</v>
+        <v>10.45193925720311</v>
       </c>
       <c r="C138">
-        <v>14.06105193314575</v>
+        <v>11.90060826809966</v>
       </c>
       <c r="D138">
-        <v>14.07428093478636</v>
+        <v>10.70854770698442</v>
       </c>
       <c r="E138">
-        <v>12.25227657335342</v>
+        <v>10.05699670107862</v>
       </c>
       <c r="F138">
-        <v>11.74796793428939</v>
+        <v>7.995386513615568</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.32735956190327</v>
+        <v>10.53016164200228</v>
       </c>
       <c r="C139">
-        <v>14.16868295007277</v>
+        <v>11.98499609127207</v>
       </c>
       <c r="D139">
-        <v>14.18498734671661</v>
+        <v>10.75833981027959</v>
       </c>
       <c r="E139">
-        <v>12.3542788772139</v>
+        <v>10.11263393533899</v>
       </c>
       <c r="F139">
-        <v>11.84710369342452</v>
+        <v>8.054673020509235</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10.36927036835366</v>
+        <v>10.60814094200408</v>
       </c>
       <c r="C140">
-        <v>14.27590154161967</v>
+        <v>12.06898462659103</v>
       </c>
       <c r="D140">
-        <v>14.29528175038284</v>
+        <v>10.80765976857265</v>
       </c>
       <c r="E140">
-        <v>12.4560510351669</v>
+        <v>10.16778417109931</v>
       </c>
       <c r="F140">
-        <v>11.94605108306699</v>
+        <v>8.113811426543599</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10.41054864416765</v>
+        <v>10.68587752136313</v>
       </c>
       <c r="C141">
-        <v>14.38270937722509</v>
+        <v>12.1525767389641</v>
       </c>
       <c r="D141">
-        <v>14.4051657060171</v>
+        <v>10.85651140596789</v>
       </c>
       <c r="E141">
-        <v>12.5575933749643</v>
+        <v>10.22245212045837</v>
       </c>
       <c r="F141">
-        <v>12.04481022233358</v>
+        <v>8.172802434165085</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10.4512012778171</v>
+        <v>10.76337179199964</v>
       </c>
       <c r="C142">
-        <v>14.48910817966532</v>
+        <v>12.23577532038383</v>
       </c>
       <c r="D142">
-        <v>14.51464082956481</v>
+        <v>10.90489856643888</v>
       </c>
       <c r="E142">
-        <v>12.65890626985755</v>
+        <v>10.27664249179645</v>
       </c>
       <c r="F142">
-        <v>12.14338127007503</v>
+        <v>8.231646757521558</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10.49123515281634</v>
+        <v>10.84062420898501</v>
       </c>
       <c r="C143">
-        <v>14.59509972334449</v>
+        <v>12.31858326570275</v>
       </c>
       <c r="D143">
-        <v>14.62370879738304</v>
+        <v>10.95282511265586</v>
       </c>
       <c r="E143">
-        <v>12.75999013357083</v>
+        <v>10.33035998374832</v>
       </c>
       <c r="F143">
-        <v>12.24176442312317</v>
+        <v>8.290345124213585</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.53065715124292</v>
+        <v>10.91763526936181</v>
       </c>
       <c r="C144">
-        <v>14.70068582827207</v>
+        <v>12.40100348536546</v>
       </c>
       <c r="D144">
-        <v>14.73237133264734</v>
+        <v>11.00029492028344</v>
       </c>
       <c r="E144">
-        <v>12.86084542000684</v>
+        <v>10.38360928482813</v>
       </c>
       <c r="F144">
-        <v>12.33995991361778</v>
+        <v>8.348898271226467</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.56947413989687</v>
+        <v>10.9944055084678</v>
       </c>
       <c r="C145">
-        <v>14.80586835867467</v>
+        <v>12.48303890166085</v>
       </c>
       <c r="D145">
-        <v>14.84063021006509</v>
+        <v>11.04731187580637</v>
       </c>
       <c r="E145">
-        <v>12.96147261887281</v>
+        <v>10.43639506888817</v>
       </c>
       <c r="F145">
-        <v>12.43796800742185</v>
+        <v>8.407306946954403</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.60769297351058</v>
+        <v>11.07093549824029</v>
       </c>
       <c r="C146">
-        <v>14.91064921756628</v>
+        <v>12.56469243770316</v>
       </c>
       <c r="D146">
-        <v>14.94848724527769</v>
+        <v>11.09387987288262</v>
       </c>
       <c r="E146">
-        <v>13.0618722552378</v>
+        <v>10.4887219939409</v>
       </c>
       <c r="F146">
-        <v>12.53578900173557</v>
+        <v>8.465571907504135</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.64532048277194</v>
+        <v>11.14722584475727</v>
       </c>
       <c r="C147">
-        <v>15.01503034551642</v>
+        <v>12.64596702787951</v>
       </c>
       <c r="D147">
-        <v>15.05594429643327</v>
+        <v>11.14000280890416</v>
       </c>
       <c r="E147">
-        <v>13.16204488585168</v>
+        <v>10.54059469942625</v>
       </c>
       <c r="F147">
-        <v>12.63342322366278</v>
+        <v>8.523693918224776</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.68236347706914</v>
+        <v>11.22327718578988</v>
       </c>
       <c r="C148">
-        <v>15.11901371583494</v>
+        <v>12.72686560463891</v>
       </c>
       <c r="D148">
-        <v>15.16300325851722</v>
+        <v>11.18568458354612</v>
       </c>
       <c r="E148">
-        <v>13.26199109845408</v>
+        <v>10.5920178038941</v>
       </c>
       <c r="F148">
-        <v>12.7308710280581</v>
+        <v>8.581673751010991</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.71882873430784</v>
+        <v>11.29909019031594</v>
       </c>
       <c r="C149">
-        <v>15.2226013334633</v>
+        <v>12.80739110389903</v>
       </c>
       <c r="D149">
-        <v>15.26966606040005</v>
+        <v>11.23092909413859</v>
       </c>
       <c r="E149">
-        <v>13.36171150883409</v>
+        <v>10.64299590531446</v>
       </c>
       <c r="F149">
-        <v>12.82813279626086</v>
+        <v>8.639512184867554</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.75472300315087</v>
+        <v>11.37466555350117</v>
       </c>
       <c r="C150">
-        <v>15.32579523069401</v>
+        <v>12.88754646154627</v>
       </c>
       <c r="D150">
-        <v>15.37593466368391</v>
+        <v>11.27574023703805</v>
       </c>
       <c r="E150">
-        <v>13.46120675979429</v>
+        <v>10.69353357482014</v>
       </c>
       <c r="F150">
-        <v>12.9252089341317</v>
+        <v>8.697210004443756</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.79005299445055</v>
+        <v>11.45000399714785</v>
       </c>
       <c r="C151">
-        <v>15.4285974662241</v>
+        <v>12.96733460947968</v>
       </c>
       <c r="D151">
-        <v>15.48181105712607</v>
+        <v>11.3201218992414</v>
       </c>
       <c r="E151">
-        <v>13.560477518994</v>
+        <v>10.74363535811267</v>
       </c>
       <c r="F151">
-        <v>13.02209987095466</v>
+        <v>8.754767999661757</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.82482538307034</v>
+        <v>11.52510626941146</v>
       </c>
       <c r="C152">
-        <v>15.53101012130284</v>
+        <v>13.04675847931376</v>
       </c>
       <c r="D152">
-        <v>15.58729725776812</v>
+        <v>11.36407796023044</v>
       </c>
       <c r="E152">
-        <v>13.65952447748827</v>
+        <v>10.79330577717599</v>
       </c>
       <c r="F152">
-        <v>13.11880605764484</v>
+        <v>8.812186965180134</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.85904680069931</v>
+        <v>11.59997313649739</v>
       </c>
       <c r="C153">
-        <v>15.63303529896286</v>
+        <v>13.12582099466979</v>
       </c>
       <c r="D153">
-        <v>15.69239530439225</v>
+        <v>11.4076122940267</v>
       </c>
       <c r="E153">
-        <v>13.75834834838566</v>
+        <v>10.84254931805693</v>
       </c>
       <c r="F153">
-        <v>13.215327965793</v>
+        <v>8.869467699451601</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.89272383735307</v>
+        <v>11.6746053903903</v>
       </c>
       <c r="C154">
-        <v>15.73467512053723</v>
+        <v>13.20452507564028</v>
       </c>
       <c r="D154">
-        <v>15.79710725968271</v>
+        <v>11.45072875367682</v>
       </c>
       <c r="E154">
-        <v>13.85694986492426</v>
+        <v>10.89137044254479</v>
       </c>
       <c r="F154">
-        <v>13.31166608604026</v>
+        <v>8.926611004803704</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.92586303537799</v>
+        <v>11.74900384177644</v>
       </c>
       <c r="C155">
-        <v>15.83593172503448</v>
+        <v>13.28287363526256</v>
       </c>
       <c r="D155">
-        <v>15.90143520355739</v>
+        <v>11.49343118414675</v>
       </c>
       <c r="E155">
-        <v>13.95532978060375</v>
+        <v>10.93977358181971</v>
       </c>
       <c r="F155">
-        <v>13.40782092723512</v>
+        <v>8.983617686146696</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.95847089067303</v>
+        <v>11.82316931613904</v>
       </c>
       <c r="C156">
-        <v>15.93680726600781</v>
+        <v>13.36086957703993</v>
       </c>
       <c r="D156">
-        <v>16.00538123581959</v>
+        <v>11.53572341891846</v>
       </c>
       <c r="E156">
-        <v>14.05348886528255</v>
+        <v>10.98776312860944</v>
       </c>
       <c r="F156">
-        <v>13.50379301496686</v>
+        <v>9.040488551418667</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.99055384775214</v>
+        <v>11.89710266309108</v>
       </c>
       <c r="C157">
-        <v>16.03730391103027</v>
+        <v>13.43851579858178</v>
       </c>
       <c r="D157">
-        <v>16.10894746971271</v>
+        <v>11.57760926467984</v>
       </c>
       <c r="E157">
-        <v>14.15142790522233</v>
+        <v>11.03534345234018</v>
       </c>
       <c r="F157">
-        <v>13.59958289081722</v>
+        <v>9.097224410182186</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.02211830069534</v>
+        <v>11.97080474209551</v>
       </c>
       <c r="C158">
-        <v>16.13742383890019</v>
+        <v>13.5158151848942</v>
       </c>
       <c r="D158">
-        <v>16.21213603443682</v>
+        <v>11.61909251915454</v>
       </c>
       <c r="E158">
-        <v>14.24914770488838</v>
+        <v>11.08251888203392</v>
       </c>
       <c r="F158">
-        <v>13.69519111103618</v>
+        <v>9.153826074191375</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.05317058916317</v>
+        <v>12.04427642914833</v>
       </c>
       <c r="C159">
-        <v>16.23716923919525</v>
+        <v>13.59277061242311</v>
       </c>
       <c r="D159">
-        <v>16.31494906987891</v>
+        <v>11.66017695918658</v>
       </c>
       <c r="E159">
-        <v>14.34664907871602</v>
+        <v>11.1292937132678</v>
       </c>
       <c r="F159">
-        <v>13.79061824588173</v>
+        <v>9.210294356055311</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.08371699909367</v>
+        <v>12.11751861619909</v>
       </c>
       <c r="C160">
-        <v>16.3365423097807</v>
+        <v>13.66938494585882</v>
       </c>
       <c r="D160">
-        <v>16.41738872767605</v>
+        <v>11.70086633681507</v>
       </c>
       <c r="E160">
-        <v>14.44393285593853</v>
+        <v>11.17567221084217</v>
       </c>
       <c r="F160">
-        <v>13.88586487842006</v>
+        <v>9.26663006980084</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.11376376038174</v>
+        <v>12.19053220468612</v>
       </c>
       <c r="C161">
-        <v>16.43554525644006</v>
+        <v>13.74566103734861</v>
       </c>
       <c r="D161">
-        <v>16.51945716837239</v>
+        <v>11.741164389716</v>
       </c>
       <c r="E161">
-        <v>14.54099988161434</v>
+        <v>11.22165859954233</v>
       </c>
       <c r="F161">
-        <v>13.98093160394827</v>
+        <v>9.32283402966544</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.14331704677811</v>
+        <v>12.2633181093568</v>
       </c>
       <c r="C162">
-        <v>16.53418029064645</v>
+        <v>13.82160172786776</v>
       </c>
       <c r="D162">
-        <v>16.62115656033651</v>
+        <v>11.78107482860098</v>
       </c>
       <c r="E162">
-        <v>14.63785100657376</v>
+        <v>11.26725707000666</v>
       </c>
       <c r="F162">
-        <v>14.07581902890563</v>
+        <v>9.378907050595281</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.17238297057253</v>
+        <v>12.33587725570979</v>
       </c>
       <c r="C163">
-        <v>16.63244962926757</v>
+        <v>13.8972098435594</v>
       </c>
       <c r="D163">
-        <v>16.722489079007</v>
+        <v>11.82060134107147</v>
       </c>
       <c r="E163">
-        <v>14.73448709528255</v>
+        <v>11.3124717772414</v>
       </c>
       <c r="F163">
-        <v>14.17052777079354</v>
+        <v>9.4348499472515</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.20096758824661</v>
+        <v>12.40821057744489</v>
       </c>
       <c r="C164">
-        <v>16.7303554930104</v>
+        <v>13.97248819828958</v>
       </c>
       <c r="D164">
-        <v>16.82345690454921</v>
+        <v>11.85974759435114</v>
       </c>
       <c r="E164">
-        <v>14.8309090233639</v>
+        <v>11.35730683707953</v>
       </c>
       <c r="F164">
-        <v>14.2650584564591</v>
+        <v>9.490663534280756</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.22907689692989</v>
+        <v>12.48031901927764</v>
       </c>
       <c r="C165">
-        <v>16.82790010586141</v>
+        <v>14.04743959094339</v>
       </c>
       <c r="D165">
-        <v>16.92406222227661</v>
+        <v>11.89851722675436</v>
       </c>
       <c r="E165">
-        <v>14.92711767197614</v>
+        <v>11.40176633031126</v>
       </c>
       <c r="F165">
-        <v>14.3594117211018</v>
+        <v>9.546348625732447</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.25671682593768</v>
+        <v>12.55220353208438</v>
       </c>
       <c r="C166">
-        <v>16.92508569181391</v>
+        <v>14.12206680565154</v>
       </c>
       <c r="D166">
-        <v>17.02430721973299</v>
+        <v>11.93691385212099</v>
       </c>
       <c r="E166">
-        <v>15.02311393313325</v>
+        <v>11.44585429898689</v>
       </c>
       <c r="F166">
-        <v>14.45358821025043</v>
+        <v>9.601906034961811</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.28389325076024</v>
+        <v>12.62386507425548</v>
       </c>
       <c r="C167">
-        <v>17.02191447725422</v>
+        <v>14.19637261251773</v>
       </c>
       <c r="D167">
-        <v>17.12419408773711</v>
+        <v>11.97494106024347</v>
       </c>
       <c r="E167">
-        <v>15.11889870599694</v>
+        <v>11.48957474651023</v>
       </c>
       <c r="F167">
-        <v>14.54758857560783</v>
+        <v>9.657336574428202</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.31061198680179</v>
+        <v>12.69530461303402</v>
       </c>
       <c r="C168">
-        <v>17.11838868935707</v>
+        <v>14.27035976485293</v>
       </c>
       <c r="D168">
-        <v>17.22372501729188</v>
+        <v>12.01260241060733</v>
       </c>
       <c r="E168">
-        <v>15.21447289535404</v>
+        <v>11.53293164167672</v>
       </c>
       <c r="F168">
-        <v>14.64141347490328</v>
+        <v>9.712641055358711</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.33687877800586</v>
+        <v>12.76652311896112</v>
       </c>
       <c r="C169">
-        <v>17.21451055018484</v>
+        <v>14.34403100161899</v>
       </c>
       <c r="D169">
-        <v>17.32290220089955</v>
+        <v>12.04990143745663</v>
       </c>
       <c r="E169">
-        <v>15.30983741414521</v>
+        <v>11.5759289119033</v>
       </c>
       <c r="F169">
-        <v>14.73506357599435</v>
+        <v>9.767820287776637</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>11.36269931383242</v>
+        <v>12.83752156928365</v>
       </c>
       <c r="C170">
-        <v>17.31028228325806</v>
+        <v>14.41738904482763</v>
       </c>
       <c r="D170">
-        <v>17.42172782957806</v>
+        <v>12.08684164901492</v>
       </c>
       <c r="E170">
-        <v>15.40499317964575</v>
+        <v>11.61857044768249</v>
       </c>
       <c r="F170">
-        <v>14.82853955070452</v>
+        <v>9.822875080115224</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>11.38807922252769</v>
+        <v>12.90830094661506</v>
       </c>
       <c r="C171">
-        <v>17.40570611222005</v>
+        <v>14.49043660039499</v>
       </c>
       <c r="D171">
-        <v>17.52020409413365</v>
+        <v>12.12342652193586</v>
       </c>
       <c r="E171">
-        <v>15.49994111395752</v>
+        <v>11.66086010286069</v>
       </c>
       <c r="F171">
-        <v>14.92184207524763</v>
+        <v>9.877806239402441</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11.41302406299435</v>
+        <v>12.97886223631944</v>
       </c>
       <c r="C172">
-        <v>17.50078425153058</v>
+        <v>14.56317635825424</v>
       </c>
       <c r="D172">
-        <v>17.61833318263787</v>
+        <v>12.15965950723698</v>
       </c>
       <c r="E172">
-        <v>15.59468214539596</v>
+        <v>11.70280169097987</v>
       </c>
       <c r="F172">
-        <v>15.01497183414038</v>
+        <v>9.932614570394376</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11.437539336441</v>
+        <v>13.04920642911345</v>
       </c>
       <c r="C173">
-        <v>17.59551891539004</v>
+        <v>14.63561099071794</v>
       </c>
       <c r="D173">
-        <v>17.71611728111515</v>
+        <v>12.19554402699416</v>
       </c>
       <c r="E173">
-        <v>15.68921720440462</v>
+        <v>11.74439898888172</v>
       </c>
       <c r="F173">
-        <v>15.10792951515864</v>
+        <v>9.987300875892116</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11.46163048185871</v>
+        <v>13.11933451806565</v>
       </c>
       <c r="C174">
-        <v>17.689912316501</v>
+        <v>14.7077431541775</v>
       </c>
       <c r="D174">
-        <v>17.81355857212247</v>
+        <v>12.23108347268725</v>
       </c>
       <c r="E174">
-        <v>15.78354722544852</v>
+        <v>11.7856557353091</v>
       </c>
       <c r="F174">
-        <v>15.20071580950532</v>
+        <v>10.04186595757896</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>11.48530287197216</v>
+        <v>13.18924749879593</v>
       </c>
       <c r="C175">
-        <v>17.78396665778869</v>
+        <v>14.77957548709277</v>
       </c>
       <c r="D175">
-        <v>17.91065923483763</v>
+        <v>12.26628120919817</v>
       </c>
       <c r="E175">
-        <v>15.87767314792418</v>
+        <v>11.82657563009769</v>
       </c>
       <c r="F175">
-        <v>15.29333141424869</v>
+        <v>10.09631061351319</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11.50856181859029</v>
+        <v>13.25894637035416</v>
       </c>
       <c r="C176">
-        <v>17.87768413924487</v>
+        <v>14.85111061103138</v>
       </c>
       <c r="D176">
-        <v>18.00742144416458</v>
+        <v>12.30114057045573</v>
       </c>
       <c r="E176">
-        <v>15.97159591175488</v>
+        <v>11.86716233653839</v>
       </c>
       <c r="F176">
-        <v>15.38577702926505</v>
+        <v>10.1506356394986</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11.53141257050484</v>
+        <v>13.32843213245019</v>
       </c>
       <c r="C177">
-        <v>17.97106695693802</v>
+        <v>14.92235113044376</v>
       </c>
       <c r="D177">
-        <v>18.10384736892973</v>
+        <v>12.33566486069187</v>
       </c>
       <c r="E177">
-        <v>16.06531646010064</v>
+        <v>11.90741947898449</v>
       </c>
       <c r="F177">
-        <v>15.4780533570754</v>
+        <v>10.20484183061228</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11.5538603121588</v>
+        <v>13.39770578680094</v>
       </c>
       <c r="C178">
-        <v>18.0641172977699</v>
+        <v>14.99329963176509</v>
       </c>
       <c r="D178">
-        <v>18.19993917327501</v>
+        <v>12.36985735621553</v>
       </c>
       <c r="E178">
-        <v>16.15883573903934</v>
+        <v>11.94735064432802</v>
       </c>
       <c r="F178">
-        <v>15.57016110389323</v>
+        <v>10.25892997763627</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>11.57591016810697</v>
+        <v>13.46676833670627</v>
       </c>
       <c r="C179">
-        <v>18.15683734311587</v>
+        <v>15.06395868461876</v>
       </c>
       <c r="D179">
-        <v>18.29569901748582</v>
+        <v>12.40372130178257</v>
       </c>
       <c r="E179">
-        <v>16.25215469487538</v>
+        <v>11.98695938276321</v>
       </c>
       <c r="F179">
-        <v>15.66210097804081</v>
+        <v>10.31290086886374</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>11.59756720073969</v>
+        <v>13.53562078525069</v>
       </c>
       <c r="C180">
-        <v>18.24922926810127</v>
+        <v>15.13433084037463</v>
       </c>
       <c r="D180">
-        <v>18.39112905155358</v>
+        <v>12.43725991279445</v>
       </c>
       <c r="E180">
-        <v>16.34527427612503</v>
+        <v>12.02624920604632</v>
       </c>
       <c r="F180">
-        <v>15.75387368961486</v>
+        <v>10.36675529083398</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11.61883640776224</v>
+        <v>13.60426413686911</v>
       </c>
       <c r="C181">
-        <v>18.34129523877984</v>
+        <v>15.20441863306401</v>
       </c>
       <c r="D181">
-        <v>18.48623141934181</v>
+        <v>12.47047637592724</v>
       </c>
       <c r="E181">
-        <v>16.43819543259998</v>
+        <v>12.06522358935294</v>
       </c>
       <c r="F181">
-        <v>15.84547995190363</v>
+        <v>10.42049402703487</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>11.63972272766917</v>
+        <v>13.6726993957723</v>
       </c>
       <c r="C182">
-        <v>18.43303741416022</v>
+        <v>15.2742245791266</v>
       </c>
       <c r="D182">
-        <v>18.581008263813</v>
+        <v>12.50337384632822</v>
       </c>
       <c r="E182">
-        <v>16.53091911401522</v>
+        <v>12.10388597118226</v>
       </c>
       <c r="F182">
-        <v>15.93692047931738</v>
+        <v>10.47411785752804</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>11.66023103755723</v>
+        <v>13.74092756561396</v>
       </c>
       <c r="C183">
-        <v>18.52445794683015</v>
+        <v>15.34375117694515</v>
       </c>
       <c r="D183">
-        <v>18.6754617132405</v>
+        <v>12.5359554499683</v>
       </c>
       <c r="E183">
-        <v>16.62344627134006</v>
+        <v>12.14223975255672</v>
       </c>
       <c r="F183">
-        <v>16.02819598709775</v>
+        <v>10.52762755996345</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>11.68036615169658</v>
+        <v>13.80894965066497</v>
       </c>
       <c r="C184">
-        <v>18.61555897850438</v>
+        <v>15.41300090765941</v>
       </c>
       <c r="D184">
-        <v>18.76959388973859</v>
+        <v>12.56822428355317</v>
       </c>
       <c r="E184">
-        <v>16.71577785550609</v>
+        <v>12.18028829883404</v>
       </c>
       <c r="F184">
-        <v>16.11930719275113</v>
+        <v>10.5810239093421</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>11.70013282593245</v>
+        <v>13.87676665348912</v>
       </c>
       <c r="C185">
-        <v>18.7063426431695</v>
+        <v>15.48197623424031</v>
       </c>
       <c r="D185">
-        <v>18.86340691135126</v>
+        <v>12.60018341267007</v>
       </c>
       <c r="E185">
-        <v>16.80791481700008</v>
+        <v>12.21803493871681</v>
       </c>
       <c r="F185">
-        <v>16.2102548143724</v>
+        <v>10.6343076770498</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>11.71953575593645</v>
+        <v>13.94437957606454</v>
       </c>
       <c r="C186">
-        <v>18.79681106746067</v>
+        <v>15.55067960220206</v>
       </c>
       <c r="D186">
-        <v>18.95690288531079</v>
+        <v>12.63183587406598</v>
       </c>
       <c r="E186">
-        <v>16.89985810694224</v>
+        <v>12.25548296478184</v>
       </c>
       <c r="F186">
-        <v>16.30103957032842</v>
+        <v>10.68747963163534</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.73857957619374</v>
+        <v>14.01178941965842</v>
       </c>
       <c r="C187">
-        <v>18.88696636678811</v>
+        <v>15.61911343937009</v>
       </c>
       <c r="D187">
-        <v>19.05008390954704</v>
+        <v>12.66318467476339</v>
       </c>
       <c r="E187">
-        <v>16.99160867522951</v>
+        <v>12.29263563450209</v>
       </c>
       <c r="F187">
-        <v>16.39166218053585</v>
+        <v>10.74054053884535</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.75726886322655</v>
+        <v>14.07899718346499</v>
       </c>
       <c r="C188">
-        <v>18.97681064801164</v>
+        <v>15.68728015573309</v>
       </c>
       <c r="D188">
-        <v>19.14295207497312</v>
+        <v>12.69423279142276</v>
       </c>
       <c r="E188">
-        <v>17.08316747105327</v>
+        <v>12.32949616930841</v>
       </c>
       <c r="F188">
-        <v>16.48212336501745</v>
+        <v>10.79349116085484</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.77560813465318</v>
+        <v>14.14600386559979</v>
       </c>
       <c r="C189">
-        <v>19.06634601005467</v>
+        <v>15.75518214396309</v>
       </c>
       <c r="D189">
-        <v>19.23550946433811</v>
+        <v>12.72498317214747</v>
       </c>
       <c r="E189">
-        <v>17.17453544356636</v>
+        <v>12.36606775568747</v>
       </c>
       <c r="F189">
-        <v>16.57242384357465</v>
+        <v>10.84633225671609</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.79360184898312</v>
+        <v>14.2128104623609</v>
       </c>
       <c r="C190">
-        <v>19.15557454028566</v>
+        <v>15.82282177885452</v>
       </c>
       <c r="D190">
-        <v>19.32775814946773</v>
+        <v>12.75543873507605</v>
       </c>
       <c r="E190">
-        <v>17.26571353995692</v>
+        <v>12.40235354546343</v>
       </c>
       <c r="F190">
-        <v>16.66256433671645</v>
+        <v>10.89906458274815</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.8112544078181</v>
+        <v>14.27941796775667</v>
       </c>
       <c r="C191">
-        <v>19.24449831688696</v>
+        <v>15.8902014180747</v>
       </c>
       <c r="D191">
-        <v>19.41970019365775</v>
+        <v>12.78560236889055</v>
       </c>
       <c r="E191">
-        <v>17.35670270644717</v>
+        <v>12.43835665551843</v>
       </c>
       <c r="F191">
-        <v>16.75254556467884</v>
+        <v>10.95168889147896</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.82857015530377</v>
+        <v>14.34582737433309</v>
       </c>
       <c r="C192">
-        <v>19.33311940911707</v>
+        <v>15.9573234016662</v>
       </c>
       <c r="D192">
-        <v>19.51133765161896</v>
+        <v>12.81547693391934</v>
       </c>
       <c r="E192">
-        <v>17.44750388845272</v>
+        <v>12.47408016871266</v>
       </c>
       <c r="F192">
-        <v>16.84236824712739</v>
+        <v>11.00420593226518</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.84555337812287</v>
+        <v>14.41203967178214</v>
       </c>
       <c r="C193">
-        <v>19.42143987491538</v>
+        <v>16.02419005201721</v>
       </c>
       <c r="D193">
-        <v>19.60267256718369</v>
+        <v>12.84506526070706</v>
       </c>
       <c r="E193">
-        <v>17.53811802912988</v>
+        <v>12.50952713388049</v>
       </c>
       <c r="F193">
-        <v>16.9320331038671</v>
+        <v>11.05661645150644</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.86220830740344</v>
+        <v>14.47805584754408</v>
       </c>
       <c r="C194">
-        <v>19.5094617623906</v>
+        <v>16.09080367409942</v>
       </c>
       <c r="D194">
-        <v>19.69370697457108</v>
+        <v>12.8743701511488</v>
       </c>
       <c r="E194">
-        <v>17.62854607029194</v>
+        <v>12.54470056601745</v>
       </c>
       <c r="F194">
-        <v>17.02154085404576</v>
+        <v>11.10892119210607</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.87853911837678</v>
+        <v>14.54387688685446</v>
       </c>
       <c r="C195">
-        <v>19.59718711026546</v>
+        <v>16.15716655713128</v>
       </c>
       <c r="D195">
-        <v>19.78444290023596</v>
+        <v>12.90339437891519</v>
       </c>
       <c r="E195">
-        <v>17.71878895224919</v>
+        <v>12.57960344707375</v>
       </c>
       <c r="F195">
-        <v>17.1108922158597</v>
+        <v>11.16112089351053</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.89454993056163</v>
+        <v>14.60950377179116</v>
       </c>
       <c r="C196">
-        <v>19.68461794578208</v>
+        <v>16.22328097130814</v>
       </c>
       <c r="D196">
-        <v>19.8748823584955</v>
+        <v>12.93214068857305</v>
       </c>
       <c r="E196">
-        <v>17.8088476129037</v>
+        <v>12.61423872567094</v>
       </c>
       <c r="F196">
-        <v>17.20008790719768</v>
+        <v>11.21321629204886</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.91024480953495</v>
+        <v>14.67493748192599</v>
       </c>
       <c r="C197">
-        <v>19.77175628598145</v>
+        <v>16.28914917011081</v>
       </c>
       <c r="D197">
-        <v>19.96502735399898</v>
+        <v>12.96061179661154</v>
       </c>
       <c r="E197">
-        <v>17.89872298846495</v>
+        <v>12.64860931777789</v>
       </c>
       <c r="F197">
-        <v>17.28912864497079</v>
+        <v>11.26520812080231</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.92562776665205</v>
+        <v>14.74017899397962</v>
       </c>
       <c r="C198">
-        <v>19.85860413819122</v>
+        <v>16.3547733903129</v>
       </c>
       <c r="D198">
-        <v>20.05487988223187</v>
+        <v>12.98881039162909</v>
       </c>
       <c r="E198">
-        <v>17.98841601306525</v>
+        <v>12.68271810709776</v>
       </c>
       <c r="F198">
-        <v>17.37801514482934</v>
+        <v>11.31709710924272</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.94070275932373</v>
+        <v>14.80522928137174</v>
       </c>
       <c r="C199">
-        <v>19.94516349814041</v>
+        <v>16.42015585312656</v>
       </c>
       <c r="D199">
-        <v>20.14444192819752</v>
+        <v>13.01673913384348</v>
       </c>
       <c r="E199">
-        <v>18.07792761829876</v>
+        <v>12.71656794506271</v>
       </c>
       <c r="F199">
-        <v>17.46674812178797</v>
+        <v>11.36888398361276</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.95547369254956</v>
+        <v>14.87008931482051</v>
       </c>
       <c r="C200">
-        <v>20.03143635110862</v>
+        <v>16.48529876090432</v>
       </c>
       <c r="D200">
-        <v>20.23371546592515</v>
+        <v>13.04440065602974</v>
       </c>
       <c r="E200">
-        <v>18.16725873379022</v>
+        <v>12.75016165143297</v>
       </c>
       <c r="F200">
-        <v>17.55532828962588</v>
+        <v>11.42056946697011</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.9699444188659</v>
+        <v>14.93476006155846</v>
       </c>
       <c r="C201">
-        <v>20.11742467252186</v>
+        <v>16.55020429987806</v>
       </c>
       <c r="D201">
-        <v>20.32270245977033</v>
+        <v>13.07179756346165</v>
       </c>
       <c r="E201">
-        <v>18.25641028660577</v>
+        <v>12.78350201455493</v>
       </c>
       <c r="F201">
-        <v>17.64375636060139</v>
+        <v>11.4721542787743</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.98411873876858</v>
+        <v>14.9992424855569</v>
       </c>
       <c r="C202">
-        <v>20.20313042609967</v>
+        <v>16.61487464043415</v>
       </c>
       <c r="D202">
-        <v>20.41140486447115</v>
+        <v>13.09893243383391</v>
       </c>
       <c r="E202">
-        <v>18.34538320116787</v>
+        <v>12.81659179158227</v>
       </c>
       <c r="F202">
-        <v>17.73203304601814</v>
+        <v>11.52363913518525</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.99800040187903</v>
+        <v>15.06353754769926</v>
       </c>
       <c r="C203">
-        <v>20.28855556499086</v>
+        <v>16.67931193665095</v>
       </c>
       <c r="D203">
-        <v>20.49982462314826</v>
+        <v>13.12580781803941</v>
       </c>
       <c r="E203">
-        <v>18.4341783997307</v>
+        <v>12.84943370899557</v>
       </c>
       <c r="F203">
-        <v>17.82015905573949</v>
+        <v>11.57502474917449</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.01159310713963</v>
+        <v>15.12764620512693</v>
       </c>
       <c r="C204">
-        <v>20.37370203226083</v>
+        <v>16.74351832531084</v>
       </c>
       <c r="D204">
-        <v>20.58796366888669</v>
+        <v>13.15242623993614</v>
       </c>
       <c r="E204">
-        <v>18.52279680156353</v>
+        <v>12.88203046272432</v>
       </c>
       <c r="F204">
-        <v>17.90813509793179</v>
+        <v>11.62631183015469</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.02490050332723</v>
+        <v>15.19156941177354</v>
       </c>
       <c r="C205">
-        <v>20.45857175938201</v>
+        <v>16.80749592731113</v>
       </c>
       <c r="D205">
-        <v>20.67582392509514</v>
+        <v>13.17879019663876</v>
       </c>
       <c r="E205">
-        <v>18.61123932326902</v>
+        <v>12.91438471853848</v>
       </c>
       <c r="F205">
-        <v>17.99596187952597</v>
+        <v>11.67750108421941</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.03792618990537</v>
+        <v>15.25530811812686</v>
       </c>
       <c r="C206">
-        <v>20.54316666715392</v>
+        <v>16.87124684802816</v>
       </c>
       <c r="D206">
-        <v>20.76340730378231</v>
+        <v>13.20490215932349</v>
       </c>
       <c r="E206">
-        <v>18.69950687899193</v>
+        <v>12.94649911237271</v>
       </c>
       <c r="F206">
-        <v>18.08364010583918</v>
+        <v>11.72859321423857</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.05067371744193</v>
+        <v>15.3188632706268</v>
       </c>
       <c r="C207">
-        <v>20.62748866611443</v>
+        <v>16.93477317638514</v>
       </c>
       <c r="D207">
-        <v>20.85071570665898</v>
+        <v>13.23076457240915</v>
       </c>
       <c r="E207">
-        <v>18.78760037971684</v>
+        <v>12.9783762507965</v>
       </c>
       <c r="F207">
-        <v>18.17117048034719</v>
+        <v>11.77958891963374</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.06314658817313</v>
+        <v>15.38223581202194</v>
       </c>
       <c r="C208">
-        <v>20.7115396553592</v>
+        <v>16.99807698540505</v>
       </c>
       <c r="D208">
-        <v>20.93775102551665</v>
+        <v>13.25637985439502</v>
       </c>
       <c r="E208">
-        <v>18.87552073366206</v>
+        <v>13.01001871107988</v>
       </c>
       <c r="F208">
-        <v>18.25855370505508</v>
+        <v>11.83048889646043</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.07534825667416</v>
+        <v>15.44542668170918</v>
       </c>
       <c r="C209">
-        <v>20.79532152326405</v>
+        <v>17.06116033243583</v>
       </c>
       <c r="D209">
-        <v>21.02451514116339</v>
+        <v>13.28175039791219</v>
       </c>
       <c r="E209">
-        <v>18.96326884631905</v>
+        <v>13.04142904161067</v>
       </c>
       <c r="F209">
-        <v>18.34579048020509</v>
+        <v>11.8812938375264</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.08728213038583</v>
+        <v>15.50843681589649</v>
       </c>
       <c r="C210">
-        <v>20.87883614781476</v>
+        <v>17.1240252594641</v>
       </c>
       <c r="D210">
-        <v>21.11100992381372</v>
+        <v>13.30687857079594</v>
       </c>
       <c r="E210">
-        <v>19.05084561995489</v>
+        <v>13.07260976224855</v>
       </c>
       <c r="F210">
-        <v>18.43288150407841</v>
+        <v>11.93200443232453</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.09895157019247</v>
+        <v>15.57126714555019</v>
       </c>
       <c r="C211">
-        <v>20.96208539573164</v>
+        <v>17.18667379264232</v>
       </c>
       <c r="D211">
-        <v>21.19723723348397</v>
+        <v>13.33176671491439</v>
       </c>
       <c r="E211">
-        <v>19.1382519540497</v>
+        <v>13.10356336477124</v>
       </c>
       <c r="F211">
-        <v>18.51982747330908</v>
+        <v>11.98262136694518</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.11035989099094</v>
+        <v>15.63391859808205</v>
       </c>
       <c r="C212">
-        <v>21.04507112300236</v>
+        <v>17.24910794282662</v>
       </c>
       <c r="D212">
-        <v>21.283198919762</v>
+        <v>13.35641714686663</v>
       </c>
       <c r="E212">
-        <v>19.225488745186</v>
+        <v>13.13429231298434</v>
       </c>
       <c r="F212">
-        <v>18.6066290826468</v>
+        <v>12.03314532422972</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.12151036229344</v>
+        <v>15.69639209737609</v>
       </c>
       <c r="C213">
-        <v>21.1277951751882</v>
+        <v>17.3113297056247</v>
       </c>
       <c r="D213">
-        <v>21.3688968213506</v>
+        <v>13.38083215842866</v>
       </c>
       <c r="E213">
-        <v>19.3125568864858</v>
+        <v>13.16479904308298</v>
       </c>
       <c r="F213">
-        <v>18.69328702477269</v>
+        <v>12.08357698379573</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.13240620880686</v>
+        <v>15.75868856517288</v>
       </c>
       <c r="C214">
-        <v>21.21025938675717</v>
+        <v>17.37334106154631</v>
       </c>
       <c r="D214">
-        <v>21.45433276668132</v>
+        <v>13.40501401764482</v>
       </c>
       <c r="E214">
-        <v>19.39945726797577</v>
+        <v>13.19508596404553</v>
       </c>
       <c r="F214">
-        <v>18.77980199058301</v>
+        <v>12.13391702187401</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.14305061090901</v>
+        <v>15.82080891648239</v>
       </c>
       <c r="C215">
-        <v>21.29246558146748</v>
+        <v>17.43514397596113</v>
       </c>
       <c r="D215">
-        <v>21.53950857415499</v>
+        <v>13.4289649682292</v>
       </c>
       <c r="E215">
-        <v>19.48619077657906</v>
+        <v>13.22515545778147</v>
       </c>
       <c r="F215">
-        <v>18.86617466899307</v>
+        <v>12.18416611145994</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.15344670532453</v>
+        <v>15.88275406321347</v>
       </c>
       <c r="C216">
-        <v>21.37441557266913</v>
+        <v>17.49674039935009</v>
       </c>
       <c r="D216">
-        <v>21.6244260511568</v>
+        <v>13.45268722872325</v>
       </c>
       <c r="E216">
-        <v>19.57275829705966</v>
+        <v>13.2550098796218</v>
       </c>
       <c r="F216">
-        <v>18.95240574676757</v>
+        <v>12.23432492236928</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.16359758569525</v>
+        <v>15.94452491335161</v>
       </c>
       <c r="C217">
-        <v>21.45611116279886</v>
+        <v>17.55813226760604</v>
       </c>
       <c r="D217">
-        <v>21.70908699480535</v>
+        <v>13.47618299422246</v>
       </c>
       <c r="E217">
-        <v>19.65916070947011</v>
+        <v>13.28465155866393</v>
       </c>
       <c r="F217">
-        <v>19.03849590877375</v>
+        <v>12.2843941210875</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.17350630281893</v>
+        <v>16.00612237271026</v>
       </c>
       <c r="C218">
-        <v>21.53755414364995</v>
+        <v>17.61932150194313</v>
       </c>
       <c r="D218">
-        <v>21.79349319233678</v>
+        <v>13.49945443641785</v>
       </c>
       <c r="E218">
-        <v>19.74539889101494</v>
+        <v>13.31408279797553</v>
       </c>
       <c r="F218">
-        <v>19.12444583782198</v>
+        <v>12.33437437089171</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.18317586565919</v>
+        <v>16.06754734071811</v>
       </c>
       <c r="C219">
-        <v>21.61874629687177</v>
+        <v>17.68031000890776</v>
       </c>
       <c r="D219">
-        <v>21.8776464201194</v>
+        <v>13.52250370412654</v>
       </c>
       <c r="E219">
-        <v>19.83147371549673</v>
+        <v>13.3433058746044</v>
       </c>
       <c r="F219">
-        <v>19.21025621451281</v>
+        <v>12.38426633190087</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.19260924183842</v>
+        <v>16.12880071355194</v>
       </c>
       <c r="C220">
-        <v>21.699689393164</v>
+        <v>17.74109968071467</v>
       </c>
       <c r="D220">
-        <v>21.96154844434086</v>
+        <v>13.54533292214943</v>
       </c>
       <c r="E220">
-        <v>19.9173860552879</v>
+        <v>13.37232304021597</v>
       </c>
       <c r="F220">
-        <v>19.29592771755644</v>
+        <v>12.43407066098449</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.20180935810322</v>
+        <v>16.1898833832937</v>
       </c>
       <c r="C221">
-        <v>21.78038519265515</v>
+        <v>17.80169239540917</v>
       </c>
       <c r="D221">
-        <v>22.04520102114219</v>
+        <v>13.56794419271873</v>
       </c>
       <c r="E221">
-        <v>20.00313677769094</v>
+        <v>13.40113652166157</v>
       </c>
       <c r="F221">
-        <v>19.38146102351386</v>
+        <v>12.48378801182954</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.21077910059525</v>
+        <v>16.25079623906141</v>
       </c>
       <c r="C222">
-        <v>21.86083544495041</v>
+        <v>17.86209001680131</v>
       </c>
       <c r="D222">
-        <v>22.12860589634287</v>
+        <v>13.59033959540297</v>
       </c>
       <c r="E222">
-        <v>20.0887267468067</v>
+        <v>13.42974852086656</v>
       </c>
       <c r="F222">
-        <v>19.46685680658726</v>
+        <v>12.53341903498588</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.21952131443601</v>
+        <v>16.3115401646674</v>
       </c>
       <c r="C223">
-        <v>21.94104188943625</v>
+        <v>17.92229439470092</v>
       </c>
       <c r="D223">
-        <v>22.21176480545992</v>
+        <v>13.61252118733188</v>
       </c>
       <c r="E223">
-        <v>20.17415682355846</v>
+        <v>13.45816121489798</v>
       </c>
       <c r="F223">
-        <v>19.5521157388226</v>
+        <v>12.58296437784516</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.2280388073367</v>
+        <v>16.37211604026827</v>
       </c>
       <c r="C224">
-        <v>22.02100625587666</v>
+        <v>17.9823073650366</v>
       </c>
       <c r="D224">
-        <v>22.29467947398637</v>
+        <v>13.63449100346674</v>
       </c>
       <c r="E224">
-        <v>20.25942786630211</v>
+        <v>13.48637675649068</v>
       </c>
       <c r="F224">
-        <v>19.63723849002098</v>
+        <v>12.63242468463932</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.23633434767128</v>
+        <v>16.43252474193311</v>
       </c>
       <c r="C225">
-        <v>22.10073026229033</v>
+        <v>18.04213075000371</v>
       </c>
       <c r="D225">
-        <v>22.37735161741154</v>
+        <v>13.65625105681486</v>
       </c>
       <c r="E225">
-        <v>20.34454073016823</v>
+        <v>13.51439727489046</v>
       </c>
       <c r="F225">
-        <v>19.72222572875764</v>
+        <v>12.68180059651503</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.24441066571194</v>
+        <v>16.4927671418533</v>
       </c>
       <c r="C226">
-        <v>22.18021561680032</v>
+        <v>18.10176635812196</v>
       </c>
       <c r="D226">
-        <v>22.45978294097717</v>
+        <v>13.6778033386743</v>
       </c>
       <c r="E226">
-        <v>20.42949626602286</v>
+        <v>13.54222487550656</v>
       </c>
       <c r="F226">
-        <v>19.80707812009608</v>
+        <v>12.73109275154194</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.25227045245611</v>
+        <v>16.55284410792726</v>
       </c>
       <c r="C227">
-        <v>22.25946401715806</v>
+        <v>18.16121598441129</v>
       </c>
       <c r="D227">
-        <v>22.54197514000998</v>
+        <v>13.69914981818068</v>
       </c>
       <c r="E227">
-        <v>20.51429532181554</v>
+        <v>13.56986164009362</v>
       </c>
       <c r="F227">
-        <v>19.89179632722865</v>
+        <v>12.78030178463602</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.25991636267622</v>
+        <v>16.61275650395389</v>
       </c>
       <c r="C228">
-        <v>22.33847715232252</v>
+        <v>18.22048141044841</v>
       </c>
       <c r="D228">
-        <v>22.62392990021115</v>
+        <v>13.72029244380257</v>
       </c>
       <c r="E228">
-        <v>20.59893874228911</v>
+        <v>13.5973096270911</v>
       </c>
       <c r="F228">
-        <v>19.97638101101735</v>
+        <v>12.82942832765577</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.26735101517644</v>
+        <v>16.67250518962396</v>
       </c>
       <c r="C229">
-        <v>22.41725670021128</v>
+        <v>18.27956440448256</v>
       </c>
       <c r="D229">
-        <v>22.70564889690581</v>
+        <v>13.74123314283864</v>
       </c>
       <c r="E229">
-        <v>20.68342736941118</v>
+        <v>13.62457087264465</v>
       </c>
       <c r="F229">
-        <v>20.06083283061909</v>
+        <v>12.87847300939331</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.274576992237</v>
+        <v>16.73209102114292</v>
       </c>
       <c r="C230">
-        <v>22.49580432808716</v>
+        <v>18.33846672170664</v>
       </c>
       <c r="D230">
-        <v>22.78713379565611</v>
+        <v>13.76197382169656</v>
       </c>
       <c r="E230">
-        <v>20.76776204102954</v>
+        <v>13.65164739015771</v>
       </c>
       <c r="F230">
-        <v>20.14515244340894</v>
+        <v>12.92743645571655</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.28159684018413</v>
+        <v>16.79151485030393</v>
       </c>
       <c r="C231">
-        <v>22.57412169352909</v>
+        <v>18.39719010424191</v>
       </c>
       <c r="D231">
-        <v>22.86838625215049</v>
+        <v>13.78251636609368</v>
       </c>
       <c r="E231">
-        <v>20.85194359195263</v>
+        <v>13.67854117050862</v>
       </c>
       <c r="F231">
-        <v>20.22934050317694</v>
+        <v>12.97631928946615</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.28841306756459</v>
+        <v>16.85077752461291</v>
       </c>
       <c r="C232">
-        <v>22.65221044423389</v>
+        <v>18.45573628124151</v>
       </c>
       <c r="D232">
-        <v>22.94940791247096</v>
+        <v>13.80286264140709</v>
       </c>
       <c r="E232">
-        <v>20.93597285365055</v>
+        <v>13.70525418220566</v>
       </c>
       <c r="F232">
-        <v>20.31339766194404</v>
+        <v>13.02512213033799</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.29502815186333</v>
+        <v>16.90987988764586</v>
       </c>
       <c r="C233">
-        <v>22.73007221927124</v>
+        <v>18.51410696908397</v>
       </c>
       <c r="D233">
-        <v>23.03020041367996</v>
+        <v>13.82301449290677</v>
       </c>
       <c r="E233">
-        <v>21.01985065445559</v>
+        <v>13.73178837267521</v>
       </c>
       <c r="F233">
-        <v>20.39732456940444</v>
+        <v>13.07384559509905</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.30144453509145</v>
+        <v>16.96882277914245</v>
       </c>
       <c r="C234">
-        <v>22.80770864612684</v>
+        <v>18.57230387149253</v>
       </c>
       <c r="D234">
-        <v>23.11076538197506</v>
+        <v>13.84297374591593</v>
       </c>
       <c r="E234">
-        <v>21.10357781915286</v>
+        <v>13.75814566762209</v>
       </c>
       <c r="F234">
-        <v>20.48112187400741</v>
+        <v>13.12249029753629</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.30766462561157</v>
+        <v>17.02760703478427</v>
       </c>
       <c r="C235">
-        <v>22.88512134311618</v>
+        <v>18.63032867962285</v>
       </c>
       <c r="D235">
-        <v>23.19110443433006</v>
+        <v>13.86274220606909</v>
       </c>
       <c r="E235">
-        <v>21.18715516923622</v>
+        <v>13.78432797132577</v>
       </c>
       <c r="F235">
-        <v>20.56479022096626</v>
+        <v>13.17105684865571</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.31369079672725</v>
+        <v>17.08623348598899</v>
       </c>
       <c r="C236">
-        <v>22.96231191881524</v>
+        <v>18.68818307204105</v>
       </c>
       <c r="D236">
-        <v>23.27121917809348</v>
+        <v>13.88232165954292</v>
       </c>
       <c r="E236">
-        <v>21.27058352285971</v>
+        <v>13.81033716660522</v>
       </c>
       <c r="F236">
-        <v>20.6483302532665</v>
+        <v>13.21954585644047</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.31952538946562</v>
+        <v>17.14470296023351</v>
       </c>
       <c r="C237">
-        <v>23.03928197239717</v>
+        <v>18.74586871513771</v>
       </c>
       <c r="D237">
-        <v>23.35111121152142</v>
+        <v>13.90171387292302</v>
       </c>
       <c r="E237">
-        <v>21.35386369553293</v>
+        <v>13.83617511633314</v>
       </c>
       <c r="F237">
-        <v>20.73174261174402</v>
+        <v>13.26795792586559</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.32517071378155</v>
+        <v>17.2030162811885</v>
       </c>
       <c r="C238">
-        <v>23.11603309343913</v>
+        <v>18.80338726304439</v>
       </c>
       <c r="D238">
-        <v>23.43078212428436</v>
+        <v>13.92092059291157</v>
       </c>
       <c r="E238">
-        <v>21.43699649916113</v>
+        <v>13.86184366264702</v>
       </c>
       <c r="F238">
-        <v>20.81502793505402</v>
+        <v>13.31629365906583</v>
       </c>
     </row>
   </sheetData>
